--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,223 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3192000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3372000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3479000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3396000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3344000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3136000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3093000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3012000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3110000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2940000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3123000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6198000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3066000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2586000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3443000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1493000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2378000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1517000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1465000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1376000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1021000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1455000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1156000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1139000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1720000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4106000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1734000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>876000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1101000</v>
+        <v>-251000</v>
       </c>
       <c r="E10" s="3">
         <v>1879000</v>
       </c>
       <c r="F10" s="3">
+        <v>1101000</v>
+      </c>
+      <c r="G10" s="3">
         <v>1879000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>1879000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1760000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2072000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1557000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1954000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1801000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1403000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2092000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1332000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1710000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +898,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,8 +944,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -962,52 +994,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>38000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>7000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>25800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>27200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>35000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>24300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1050,8 +1094,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1065,96 +1115,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5654000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2747000</v>
+      </c>
+      <c r="F17" s="3">
         <v>3414000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2662000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2582000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2804000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1640000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2584000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2400000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2101000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2718000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6190000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2963000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1986000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2462000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>625000</v>
+      </c>
+      <c r="F18" s="3">
         <v>65000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>734000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>762000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>332000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1453000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>428000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>710000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>839000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>405000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>8000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>103000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>600000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1171,82 +1235,90 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9401000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1683000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-451000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-236000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2057000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-46000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-236000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-18000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-316000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>548000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-235000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8214000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-936000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-284000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>692000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-629000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2493000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-748000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>566000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>638000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1256,143 +1328,167 @@
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E22" s="3">
         <v>54000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="G22" s="3">
         <v>57000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>56000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>60000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>65000</v>
       </c>
       <c r="I22" s="3">
         <v>60000</v>
       </c>
       <c r="J22" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="L22" s="3">
         <v>46000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>45000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>42000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>73000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>35000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>35000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6887000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1112000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-440000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>441000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-924000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2329000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-618000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>322000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>428000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>776000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>47000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>483000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-167000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-472000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-120000</v>
+        <v>1440000</v>
       </c>
       <c r="E24" s="3">
-        <v>69000</v>
+        <v>-271000</v>
       </c>
       <c r="F24" s="3">
-        <v>-221000</v>
+        <v>-124000</v>
       </c>
       <c r="G24" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="I24" s="3">
         <v>448000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-259000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>50000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>63000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>225000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-59000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-41000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-253000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1435,96 +1531,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-320000</v>
+        <v>5447000</v>
       </c>
       <c r="E26" s="3">
-        <v>372000</v>
+        <v>-841000</v>
       </c>
       <c r="F26" s="3">
-        <v>-703000</v>
+        <v>-316000</v>
       </c>
       <c r="G26" s="3">
+        <v>430000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-709000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1881000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-359000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>272000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>365000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>551000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>106000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>524000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-197000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-219000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-388000</v>
+        <v>5397000</v>
       </c>
       <c r="E27" s="3">
-        <v>305000</v>
+        <v>-937000</v>
       </c>
       <c r="F27" s="3">
-        <v>-769000</v>
+        <v>-384000</v>
       </c>
       <c r="G27" s="3">
+        <v>363000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-775000</v>
+      </c>
+      <c r="I27" s="3">
         <v>1820000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-412000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>175000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>242000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>407000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>10000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>341000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-290000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-366000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1567,41 +1681,47 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>4000</v>
-      </c>
-      <c r="E29" s="3">
-        <v>58000</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>118000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-84000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-11000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-28000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>76000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1611,8 +1731,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1655,8 +1781,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1699,96 +1831,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9401000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1683000</v>
+      </c>
+      <c r="F32" s="3">
         <v>451000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>236000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1630000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2006000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>46000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>236000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>18000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>316000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-548000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>235000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1037000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5397000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-937000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-384000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>363000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-775000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1938000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-496000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>164000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>214000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>483000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>10000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>341000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-290000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-366000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1831,101 +1981,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5397000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-937000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-384000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>363000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-775000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1938000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-496000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>164000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>214000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>483000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>10000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>341000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-290000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-366000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1942,8 +2110,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1960,52 +2130,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10315000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4405000</v>
+      </c>
+      <c r="F41" s="3">
         <v>4471000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4734000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5129000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4469000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4777000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6833000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6091000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4814000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6446000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6187000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2048,52 +2226,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>7050000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6579000</v>
+      </c>
+      <c r="F43" s="3">
         <v>6591000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6896000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>6972000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>7104000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7133000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>7239000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>7253000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>7181000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>7241000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>7352000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2136,37 +2326,43 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2013000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1095000</v>
+      </c>
+      <c r="F45" s="3">
         <v>958000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1110000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1262000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1170000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1263000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2180,8 +2376,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2224,81 +2426,93 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>96216000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>93313000</v>
+      </c>
+      <c r="F47" s="3">
         <v>94690000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>86853000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>82880000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>81281000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>79209000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>76822000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>79941000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>82706000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>79455000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>77837000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
+        <v>687000</v>
+      </c>
+      <c r="F48" s="3">
         <v>713000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>726000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>760000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2312,52 +2526,64 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4760000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4751000</v>
+      </c>
+      <c r="F49" s="3">
         <v>4765000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4776000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4769000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4780000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>4791000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>4802000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4813000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4824000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4840000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4852000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2400,8 +2626,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2444,52 +2676,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5652000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6852000</v>
+      </c>
+      <c r="F52" s="3">
         <v>5787000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>6080000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6018000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6745000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>6736000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7635000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7313000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8394000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6722000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6984000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2532,52 +2776,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>240781000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>249870000</v>
+      </c>
+      <c r="F54" s="3">
         <v>244646000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>238597000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>232819000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>220797000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>234451000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>231012000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>232294000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>235615000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>230825000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>226564000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2594,8 +2850,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2612,8 +2870,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2656,96 +2916,114 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4632000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4608000</v>
+      </c>
+      <c r="F58" s="3">
         <v>4208000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1698000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1640000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2063000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2400000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2350000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2404000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2387000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3784000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>3747000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8366000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6081000</v>
+      </c>
+      <c r="F59" s="3">
         <v>6068000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6146000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6321000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5032000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4687000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4714000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4411000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4448000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4373000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4491000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2788,75 +3066,87 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6336000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6403000</v>
+      </c>
+      <c r="F61" s="3">
         <v>7086000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7144000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7299000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7455000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7306000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>7422000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7403000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>11530000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7142000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6786000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>679000</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>724000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2876,8 +3166,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2920,8 +3216,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2964,8 +3266,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3008,52 +3316,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>229755000</v>
+        <v>220695000</v>
       </c>
       <c r="E66" s="3">
-        <v>223794000</v>
+        <v>236335000</v>
       </c>
       <c r="F66" s="3">
-        <v>219715000</v>
+        <v>229710000</v>
       </c>
       <c r="G66" s="3">
-        <v>206969000</v>
+        <v>223754000</v>
       </c>
       <c r="H66" s="3">
-        <v>222077000</v>
+        <v>219676000</v>
       </c>
       <c r="I66" s="3">
+        <v>206931000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>222040000</v>
+      </c>
+      <c r="K66" s="3">
         <v>217674000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>218775000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>222246000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>218667000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>214442000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3070,8 +3390,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3114,8 +3436,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3158,16 +3486,22 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3202,8 +3536,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3246,52 +3586,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17112000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>11827000</v>
+      </c>
+      <c r="F72" s="3">
         <v>12835000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>13293000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>13004000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>13989000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>12031000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>12613000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>12455000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>12225000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>11548000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11558000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3334,8 +3686,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3378,8 +3736,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3422,52 +3786,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14891000</v>
+        <v>19311000</v>
       </c>
       <c r="E76" s="3">
-        <v>14803000</v>
+        <v>12760000</v>
       </c>
       <c r="F76" s="3">
-        <v>13104000</v>
+        <v>14936000</v>
       </c>
       <c r="G76" s="3">
-        <v>13828000</v>
+        <v>14843000</v>
       </c>
       <c r="H76" s="3">
-        <v>12374000</v>
+        <v>13143000</v>
       </c>
       <c r="I76" s="3">
+        <v>13866000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12411000</v>
+      </c>
+      <c r="K76" s="3">
         <v>13338000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>13519000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13369000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12158000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12122000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3510,101 +3886,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5397000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-937000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-384000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>363000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-775000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1938000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-496000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>164000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>214000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>483000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>10000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>341000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-290000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-366000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3621,52 +4015,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1275000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>122000</v>
+      </c>
+      <c r="F83" s="3">
         <v>102000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>194000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>239000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>104000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>-195000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>184000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>164000</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3709,8 +4111,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3753,8 +4161,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3797,8 +4211,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3841,8 +4261,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3885,52 +4311,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-582000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F89" s="3">
         <v>133000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-316000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-109000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>94000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>281000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-67000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-247000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-23000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>378000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>666000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>72000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-54000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3947,52 +4385,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-33000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-23000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-16000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-39000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-38000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-22000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-24000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-35000</v>
       </c>
       <c r="L91" s="3">
         <v>-24000</v>
       </c>
       <c r="M91" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-43000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-19000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-30000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4035,8 +4481,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4079,52 +4531,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1085000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-2372000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-70000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-993000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1348000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>459000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4141,38 +4605,40 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-74000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-73000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-68000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-69000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-73000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-15000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4185,8 +4651,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4229,8 +4701,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4273,8 +4751,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4317,136 +4801,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2334000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>992000</v>
+      </c>
+      <c r="F100" s="3">
         <v>4581000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2294000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>838000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-181000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>700000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-264000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1400000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2771000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1376000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4923000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2630000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>954000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-14000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>11000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-17000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5886000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-263000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-395000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>660000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-308000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>742000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1277000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>259000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>533000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-189000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,223 +665,235 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3503000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3192000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3372000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3479000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3396000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3344000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3136000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3093000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3012000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3110000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2940000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3123000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6198000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3066000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2586000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1355000</v>
+      </c>
+      <c r="E9" s="3">
         <v>3443000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1493000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2378000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1517000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1465000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1376000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1021000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1455000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1156000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1139000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1720000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4106000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1734000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>876000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2148000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-251000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1879000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1101000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1879000</v>
       </c>
       <c r="H10" s="3">
         <v>1879000</v>
       </c>
       <c r="I10" s="3">
+        <v>1879000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1760000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2072000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1557000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1954000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1801000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1403000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2092000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1332000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1710000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +912,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,58 +1016,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>38000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>25800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>27200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>35000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>24300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1100,8 +1122,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1117,108 +1142,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2441000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5654000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2747000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3414000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2662000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2582000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2804000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1640000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2584000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2400000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2101000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2718000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6190000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2963000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1986000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2462000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>625000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>65000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>734000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>762000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>332000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1453000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>428000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>710000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>839000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>405000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>8000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>103000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>600000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1237,91 +1269,95 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6033000</v>
+      </c>
+      <c r="E20" s="3">
         <v>9401000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1683000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-451000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-236000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2057000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-46000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-236000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-316000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>548000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-235000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4740000</v>
+      </c>
+      <c r="E21" s="3">
         <v>8214000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-936000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-284000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>692000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-629000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2493000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-748000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>566000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>638000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1334,161 +1370,173 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E22" s="3">
         <v>52000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>54000</v>
       </c>
       <c r="F22" s="3">
         <v>54000</v>
       </c>
       <c r="G22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="H22" s="3">
         <v>57000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>56000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>65000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>42000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>73000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>35000</v>
       </c>
       <c r="Q22" s="3">
         <v>35000</v>
       </c>
       <c r="R22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="S22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5019000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6887000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1112000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-440000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>441000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-924000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2329000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-618000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>322000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>428000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>776000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>47000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>483000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-167000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-472000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1077000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1440000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-271000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-124000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-215000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>448000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-259000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>225000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-59000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-41000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-253000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1537,108 +1585,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3942000</v>
+      </c>
+      <c r="E26" s="3">
         <v>5447000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-841000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-316000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>430000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-709000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1881000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-359000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>272000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>365000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>551000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>106000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>524000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-197000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-219000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4038000</v>
+      </c>
+      <c r="E27" s="3">
         <v>5397000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-937000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-384000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>363000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-775000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1820000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-412000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>175000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>242000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>407000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>10000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>341000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-290000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-366000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1687,8 +1744,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1707,24 +1767,24 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>118000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-84000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-11000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-28000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>76000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1737,8 +1797,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1787,8 +1850,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1837,108 +1903,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6033000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9401000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1683000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>451000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>236000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1630000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2006000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>46000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>236000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>316000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-548000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>235000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1037000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4038000</v>
+      </c>
+      <c r="E33" s="3">
         <v>5397000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-937000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-384000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>363000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-775000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1938000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-496000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>164000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>214000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>483000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>10000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>341000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-290000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-366000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1987,113 +2062,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4038000</v>
+      </c>
+      <c r="E35" s="3">
         <v>5397000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-937000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-384000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>363000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-775000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1938000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-496000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>164000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>214000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>483000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>10000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>341000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-290000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-366000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2112,8 +2196,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2132,58 +2217,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8364000</v>
+      </c>
+      <c r="E41" s="3">
         <v>10315000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4405000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4471000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4734000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5129000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4469000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4777000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6833000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6091000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4814000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6446000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6187000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2232,58 +2321,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6663000</v>
+      </c>
+      <c r="E43" s="3">
         <v>7050000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6579000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6591000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6896000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6972000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7104000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7133000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7239000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7253000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7181000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7241000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7352000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2332,40 +2427,43 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1882000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2013000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1095000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>958000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1110000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1262000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1170000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1263000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2382,8 +2480,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2432,79 +2533,85 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>102693000</v>
+      </c>
+      <c r="E47" s="3">
         <v>96216000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>93313000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>94690000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>86853000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>82880000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>81281000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>79209000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>76822000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>79941000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>82706000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>79455000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>77837000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
         <v>687000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>713000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>726000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>760000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2514,8 +2621,8 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2532,58 +2639,64 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4756000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4760000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4751000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4765000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4776000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4769000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4780000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4791000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4802000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4813000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4824000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4840000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4852000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2632,8 +2745,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2682,58 +2798,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4182000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5652000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6852000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5787000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6080000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6018000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6745000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6736000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7635000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7313000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8394000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6722000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6984000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2782,58 +2904,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>254110000</v>
+      </c>
+      <c r="E54" s="3">
         <v>240781000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>249870000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>244646000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>238597000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>232819000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>220797000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>234451000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>231012000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>232294000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>235615000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>230825000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>226564000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2852,8 +2980,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2872,8 +3001,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2922,108 +3052,117 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4890000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4632000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4608000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4208000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1698000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1640000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2063000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2400000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2350000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2404000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2387000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3784000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3747000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7447000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8366000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6081000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6068000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6146000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6321000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5032000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4687000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4714000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4411000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4448000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4373000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4491000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3072,70 +3211,76 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5915000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6336000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6403000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7086000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7144000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7299000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7455000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7306000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7422000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7403000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11530000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7142000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6786000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>679000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>724000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3148,8 +3293,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3172,8 +3317,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3222,8 +3370,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3272,8 +3423,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3322,58 +3476,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>236516000</v>
+      </c>
+      <c r="E66" s="3">
         <v>220695000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>236335000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>229710000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>223754000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>219676000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>206931000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>222040000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>217674000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>218775000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>222246000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>218667000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>214442000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3392,8 +3552,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3442,8 +3603,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3492,8 +3656,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3504,7 +3671,7 @@
         <v>775000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3542,8 +3709,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3592,58 +3762,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12995000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17112000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11827000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12835000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13293000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13004000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13989000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12031000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12613000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12455000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12225000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11548000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11558000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3692,8 +3868,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3742,8 +3921,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3792,58 +3974,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16819000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19311000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12760000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14936000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14843000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13143000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13866000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12411000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13338000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13519000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13369000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12158000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12122000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3892,113 +4080,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4038000</v>
+      </c>
+      <c r="E81" s="3">
         <v>5397000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-937000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-384000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>363000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-775000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1938000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-496000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>164000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>214000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>483000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>10000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>341000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-290000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-366000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4017,58 +4214,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1275000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>122000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>102000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>194000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>239000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>104000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-195000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>184000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>164000</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4117,8 +4318,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4167,8 +4371,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4217,8 +4424,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4267,8 +4477,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4317,58 +4530,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-582000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>76000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>133000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-316000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-109000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>94000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>281000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-67000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-247000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>378000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>666000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-54000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4387,8 +4606,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4396,49 +4616,52 @@
         <v>-14000</v>
       </c>
       <c r="E91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-21000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-39000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-38000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-30000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4487,8 +4710,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4537,58 +4763,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2585000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4147000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2372000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-70000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-993000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1348000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>459000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4607,41 +4839,42 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-77000</v>
       </c>
       <c r="E96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-70000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-74000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-73000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-68000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-69000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-73000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-15000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -4657,8 +4890,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4707,8 +4943,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4757,8 +4996,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4807,154 +5049,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2334000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>992000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4581000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2294000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>838000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-181000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>700000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-264000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1400000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2771000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1376000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4923000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2630000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>954000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-13000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-3000</v>
       </c>
       <c r="J101" s="3">
         <v>-3000</v>
       </c>
       <c r="K101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="L101" s="3">
         <v>-14000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-17000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1992000</v>
+      </c>
+      <c r="E102" s="3">
         <v>5886000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-263000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-395000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>660000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-308000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>742000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1277000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>259000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>533000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-189000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,247 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3503000</v>
+        <v>3312000</v>
       </c>
       <c r="E8" s="3">
+        <v>6697000</v>
+      </c>
+      <c r="F8" s="3">
         <v>3192000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3372000</v>
       </c>
-      <c r="G8" s="3">
-        <v>3479000</v>
-      </c>
       <c r="H8" s="3">
-        <v>3396000</v>
+        <v>3531000</v>
       </c>
       <c r="I8" s="3">
+        <v>6735000</v>
+      </c>
+      <c r="J8" s="3">
         <v>3344000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3136000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3093000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3012000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3110000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2940000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3123000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6198000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3066000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2586000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1355000</v>
+        <v>1682000</v>
       </c>
       <c r="E9" s="3">
+        <v>4776000</v>
+      </c>
+      <c r="F9" s="3">
         <v>3443000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1493000</v>
       </c>
-      <c r="G9" s="3">
-        <v>2378000</v>
-      </c>
       <c r="H9" s="3">
-        <v>1517000</v>
+        <v>2372000</v>
       </c>
       <c r="I9" s="3">
+        <v>3028000</v>
+      </c>
+      <c r="J9" s="3">
         <v>1465000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1376000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1021000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1455000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1156000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1139000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1720000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4106000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1734000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>876000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2148000</v>
+        <v>1630000</v>
       </c>
       <c r="E10" s="3">
+        <v>1921000</v>
+      </c>
+      <c r="F10" s="3">
         <v>-251000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1879000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1101000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1159000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3707000</v>
+      </c>
+      <c r="J10" s="3">
         <v>1879000</v>
       </c>
-      <c r="I10" s="3">
-        <v>1879000</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1760000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2072000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1557000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1954000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1801000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1403000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2092000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1332000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1710000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +925,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -966,8 +979,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1019,8 +1035,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,50 +1049,53 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>38000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>25800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>27200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>35000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>24300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1125,8 +1147,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1143,114 +1168,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2441000</v>
+        <v>2711000</v>
       </c>
       <c r="E17" s="3">
+        <v>8108000</v>
+      </c>
+      <c r="F17" s="3">
         <v>5654000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2747000</v>
       </c>
-      <c r="G17" s="3">
-        <v>3414000</v>
-      </c>
       <c r="H17" s="3">
-        <v>2662000</v>
+        <v>3451000</v>
       </c>
       <c r="I17" s="3">
+        <v>5276000</v>
+      </c>
+      <c r="J17" s="3">
         <v>2582000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2804000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1640000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2584000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2101000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2718000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6190000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2963000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1986000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1062000</v>
+        <v>601000</v>
       </c>
       <c r="E18" s="3">
+        <v>-1411000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2462000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>625000</v>
       </c>
-      <c r="G18" s="3">
-        <v>65000</v>
-      </c>
       <c r="H18" s="3">
-        <v>734000</v>
+        <v>80000</v>
       </c>
       <c r="I18" s="3">
+        <v>1459000</v>
+      </c>
+      <c r="J18" s="3">
         <v>762000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>332000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1453000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>428000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>710000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>839000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>405000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>8000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>103000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1270,97 +1302,101 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6033000</v>
+        <v>-1472000</v>
       </c>
       <c r="E20" s="3">
+        <v>3362000</v>
+      </c>
+      <c r="F20" s="3">
         <v>9401000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1683000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-451000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-453000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1870000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1630000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2057000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-2006000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-236000</v>
       </c>
-      <c r="I20" s="3">
-        <v>-1630000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2057000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2006000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-46000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-236000</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-316000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>548000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-235000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4740000</v>
+        <v>-709000</v>
       </c>
       <c r="E21" s="3">
+        <v>3457000</v>
+      </c>
+      <c r="F21" s="3">
         <v>8214000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-936000</v>
-      </c>
       <c r="G21" s="3">
-        <v>-284000</v>
+        <v>-965000</v>
       </c>
       <c r="H21" s="3">
-        <v>692000</v>
+        <v>-242000</v>
       </c>
       <c r="I21" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-629000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2493000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-748000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>566000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>638000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1373,170 +1409,182 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48000</v>
+        <v>52000</v>
       </c>
       <c r="E22" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="3">
         <v>52000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>54000</v>
       </c>
       <c r="G22" s="3">
         <v>54000</v>
       </c>
       <c r="H22" s="3">
-        <v>57000</v>
+        <v>54000</v>
       </c>
       <c r="I22" s="3">
+        <v>113000</v>
+      </c>
+      <c r="J22" s="3">
         <v>56000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>65000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>46000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>42000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>73000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>35000</v>
       </c>
       <c r="R22" s="3">
         <v>35000</v>
       </c>
       <c r="S22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="T22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-5019000</v>
+        <v>-923000</v>
       </c>
       <c r="E23" s="3">
+        <v>1851000</v>
+      </c>
+      <c r="F23" s="3">
         <v>6887000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1112000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-440000</v>
-      </c>
       <c r="H23" s="3">
-        <v>441000</v>
+        <v>-427000</v>
       </c>
       <c r="I23" s="3">
+        <v>-524000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-924000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2329000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-618000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>322000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>428000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>776000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>47000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>483000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-167000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-472000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1077000</v>
+        <v>-218000</v>
       </c>
       <c r="E24" s="3">
+        <v>359000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1440000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-271000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-124000</v>
-      </c>
       <c r="H24" s="3">
-        <v>11000</v>
+        <v>-121000</v>
       </c>
       <c r="I24" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="J24" s="3">
         <v>-215000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>448000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-259000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>63000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>225000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-59000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-41000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>30000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-253000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1588,114 +1636,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3942000</v>
+        <v>-705000</v>
       </c>
       <c r="E26" s="3">
+        <v>1492000</v>
+      </c>
+      <c r="F26" s="3">
         <v>5447000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-841000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-316000</v>
-      </c>
       <c r="H26" s="3">
-        <v>430000</v>
+        <v>-306000</v>
       </c>
       <c r="I26" s="3">
+        <v>-311000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-709000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1881000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-359000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>272000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>365000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>551000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>106000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>524000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-197000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-219000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-4038000</v>
+        <v>-790000</v>
       </c>
       <c r="E27" s="3">
+        <v>1346000</v>
+      </c>
+      <c r="F27" s="3">
         <v>5397000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-937000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-384000</v>
-      </c>
       <c r="H27" s="3">
-        <v>363000</v>
+        <v>-374000</v>
       </c>
       <c r="I27" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-775000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1820000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-412000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>175000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>242000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>407000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>10000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>341000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-290000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-366000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1747,8 +1804,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1770,24 +1830,24 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>118000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-84000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-11000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-28000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>76000</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1800,8 +1860,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1853,8 +1916,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1906,114 +1972,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6033000</v>
+        <v>1472000</v>
       </c>
       <c r="E32" s="3">
+        <v>-3362000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-9401000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1683000</v>
       </c>
-      <c r="G32" s="3">
-        <v>451000</v>
-      </c>
       <c r="H32" s="3">
+        <v>453000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1870000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-2057000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>2006000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>46000</v>
+      </c>
+      <c r="N32" s="3">
         <v>236000</v>
       </c>
-      <c r="I32" s="3">
-        <v>1630000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2057000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2006000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>46000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>236000</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>316000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-548000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>235000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1037000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-4038000</v>
+        <v>-790000</v>
       </c>
       <c r="E33" s="3">
+        <v>1346000</v>
+      </c>
+      <c r="F33" s="3">
         <v>5397000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-937000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-384000</v>
-      </c>
       <c r="H33" s="3">
-        <v>363000</v>
+        <v>-374000</v>
       </c>
       <c r="I33" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-775000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1938000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-496000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>164000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>214000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>483000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>10000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>341000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-290000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-366000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2065,119 +2140,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-4038000</v>
+        <v>-790000</v>
       </c>
       <c r="E35" s="3">
+        <v>1346000</v>
+      </c>
+      <c r="F35" s="3">
         <v>5397000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-937000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-384000</v>
-      </c>
       <c r="H35" s="3">
-        <v>363000</v>
+        <v>-374000</v>
       </c>
       <c r="I35" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-775000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1938000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-496000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>164000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>214000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>483000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>10000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>341000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-290000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-366000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2197,8 +2281,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2218,61 +2303,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8684000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8364000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10315000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4405000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4471000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4734000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5129000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4469000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4777000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6833000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6091000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4814000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6446000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6187000</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2324,61 +2413,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6509000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6663000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7050000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6579000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6591000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6896000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6972000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7104000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7133000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7239000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7253000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7181000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7241000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7352000</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2430,43 +2525,46 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1869000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1882000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2013000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1095000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>958000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1110000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1262000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1170000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1263000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2483,8 +2581,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2536,61 +2637,67 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>105778000</v>
+      </c>
+      <c r="E47" s="3">
         <v>102693000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>96216000</v>
       </c>
-      <c r="F47" s="3">
-        <v>93313000</v>
-      </c>
       <c r="G47" s="3">
+        <v>93340000</v>
+      </c>
+      <c r="H47" s="3">
         <v>94690000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>86853000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>82880000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>81281000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>79209000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>76822000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>79941000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>82706000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>79455000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>77837000</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2600,21 +2707,21 @@
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3">
         <v>687000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>713000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>726000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>760000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2624,8 +2731,8 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2642,61 +2749,67 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4745000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4756000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4760000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4751000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4765000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4776000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4769000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4780000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4791000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4802000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4813000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4824000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4840000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4852000</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2748,8 +2861,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2801,61 +2917,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4171000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4182000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5652000</v>
       </c>
-      <c r="F52" s="3">
-        <v>6852000</v>
-      </c>
       <c r="G52" s="3">
+        <v>6799000</v>
+      </c>
+      <c r="H52" s="3">
         <v>5787000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6080000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6018000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6745000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6736000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7635000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7313000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8394000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6722000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6984000</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2907,61 +3029,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>262496000</v>
+      </c>
+      <c r="E54" s="3">
         <v>254110000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>240781000</v>
       </c>
-      <c r="F54" s="3">
-        <v>249870000</v>
-      </c>
       <c r="G54" s="3">
+        <v>249818000</v>
+      </c>
+      <c r="H54" s="3">
         <v>244646000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>238597000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>232819000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>220797000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>234451000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>231012000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>232294000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>235615000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>230825000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>226564000</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2981,8 +3109,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3002,8 +3131,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3055,114 +3185,123 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5038000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4890000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4632000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4608000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4208000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1698000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1640000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2063000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2400000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2350000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2404000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2387000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3784000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3747000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7260000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7447000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8366000</v>
       </c>
-      <c r="F59" s="3">
-        <v>6081000</v>
-      </c>
       <c r="G59" s="3">
+        <v>6060000</v>
+      </c>
+      <c r="H59" s="3">
         <v>6068000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6146000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6321000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5032000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4687000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4714000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4411000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4448000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4373000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4491000</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3214,61 +3353,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5916000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5915000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6336000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6403000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7086000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7144000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7299000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7455000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7306000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7422000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7403000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11530000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7142000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6786000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3276,14 +3421,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>679000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>724000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3296,8 +3441,8 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3320,8 +3465,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3373,8 +3521,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3426,8 +3577,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3479,61 +3633,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>245196000</v>
+      </c>
+      <c r="E66" s="3">
         <v>236516000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>220695000</v>
       </c>
-      <c r="F66" s="3">
-        <v>236335000</v>
-      </c>
       <c r="G66" s="3">
+        <v>236362000</v>
+      </c>
+      <c r="H66" s="3">
         <v>229710000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>223754000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>219676000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>206931000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>222040000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>217674000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>218775000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>222246000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>218667000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>214442000</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3553,8 +3713,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3606,8 +3767,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3659,13 +3823,16 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="E70" s="3">
         <v>775000</v>
@@ -3674,7 +3841,7 @@
         <v>775000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3712,8 +3879,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3765,61 +3935,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12032000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12995000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17112000</v>
       </c>
-      <c r="F72" s="3">
-        <v>11827000</v>
-      </c>
       <c r="G72" s="3">
+        <v>11744000</v>
+      </c>
+      <c r="H72" s="3">
         <v>12835000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13293000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13004000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13989000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12031000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12613000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12455000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12225000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11548000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11558000</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3871,8 +4047,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3924,8 +4103,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3977,61 +4159,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16031000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16819000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19311000</v>
       </c>
-      <c r="F76" s="3">
-        <v>12760000</v>
-      </c>
       <c r="G76" s="3">
+        <v>12681000</v>
+      </c>
+      <c r="H76" s="3">
         <v>14936000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14843000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13143000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13866000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12411000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13338000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13519000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13369000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12158000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12122000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4083,119 +4271,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-4038000</v>
+        <v>-790000</v>
       </c>
       <c r="E81" s="3">
+        <v>1346000</v>
+      </c>
+      <c r="F81" s="3">
         <v>5397000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-937000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-384000</v>
-      </c>
       <c r="H81" s="3">
-        <v>363000</v>
+        <v>-374000</v>
       </c>
       <c r="I81" s="3">
+        <v>-444000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-775000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1938000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-496000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>164000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>214000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>483000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>10000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>341000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-290000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-366000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4215,61 +4412,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>231000</v>
+        <v>162000</v>
       </c>
       <c r="E83" s="3">
+        <v>1506000</v>
+      </c>
+      <c r="F83" s="3">
         <v>1275000</v>
       </c>
-      <c r="F83" s="3">
-        <v>122000</v>
-      </c>
       <c r="G83" s="3">
-        <v>102000</v>
+        <v>93000</v>
       </c>
       <c r="H83" s="3">
-        <v>194000</v>
+        <v>131000</v>
       </c>
       <c r="I83" s="3">
+        <v>433000</v>
+      </c>
+      <c r="J83" s="3">
         <v>239000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>104000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-195000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>184000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>164000</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4321,8 +4522,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4374,8 +4578,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4427,8 +4634,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4480,8 +4690,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4533,61 +4746,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>34000</v>
+        <v>553000</v>
       </c>
       <c r="E89" s="3">
+        <v>-548000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-582000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>76000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>133000</v>
       </c>
-      <c r="H89" s="3">
-        <v>-316000</v>
-      </c>
       <c r="I89" s="3">
+        <v>-425000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-109000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>94000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>281000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-67000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-247000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>378000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>666000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>72000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-54000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4607,61 +4826,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-14000</v>
       </c>
-      <c r="E91" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33000</v>
       </c>
-      <c r="H91" s="3">
-        <v>-23000</v>
-      </c>
       <c r="I91" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-16000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-39000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-24000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-35000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-30000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4713,8 +4936,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4766,61 +4992,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2585000</v>
+        <v>-5530000</v>
       </c>
       <c r="E94" s="3">
+        <v>1562000</v>
+      </c>
+      <c r="F94" s="3">
         <v>4147000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="H94" s="3">
-        <v>-2372000</v>
-      </c>
       <c r="I94" s="3">
+        <v>-2442000</v>
+      </c>
+      <c r="J94" s="3">
         <v>-70000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-993000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1348000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>459000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4840,44 +5072,45 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-77000</v>
+        <v>-76000</v>
       </c>
       <c r="E96" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-69000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-70000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-74000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
+        <v>-141000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-73000</v>
       </c>
-      <c r="I96" s="3">
-        <v>-68000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-69000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-73000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-15000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -4893,8 +5126,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4946,8 +5182,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4999,8 +5238,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5052,163 +5294,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>557000</v>
+        <v>5285000</v>
       </c>
       <c r="E100" s="3">
+        <v>2891000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2334000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>992000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4581000</v>
       </c>
-      <c r="H100" s="3">
-        <v>2294000</v>
-      </c>
       <c r="I100" s="3">
+        <v>3132000</v>
+      </c>
+      <c r="J100" s="3">
         <v>838000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-181000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>700000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-264000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2771000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1376000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4923000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2630000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>954000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="E101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-13000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>1000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-3000</v>
       </c>
       <c r="K101" s="3">
         <v>-3000</v>
       </c>
       <c r="L101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="M101" s="3">
         <v>-14000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-17000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1992000</v>
+        <v>320000</v>
       </c>
       <c r="E102" s="3">
+        <v>3894000</v>
+      </c>
+      <c r="F102" s="3">
         <v>5886000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-263000</v>
       </c>
-      <c r="H102" s="3">
-        <v>-395000</v>
-      </c>
       <c r="I102" s="3">
+        <v>265000</v>
+      </c>
+      <c r="J102" s="3">
         <v>660000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-308000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>742000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1277000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>259000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>533000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-189000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,247 +665,259 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4186000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3312000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6697000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3192000</v>
       </c>
-      <c r="G8" s="3">
-        <v>3372000</v>
-      </c>
       <c r="H8" s="3">
+        <v>3365000</v>
+      </c>
+      <c r="I8" s="3">
         <v>3531000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6735000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3344000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3136000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3093000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3012000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3110000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2940000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3123000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6198000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3066000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2586000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1682000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4776000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3443000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1493000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1490000</v>
+      </c>
+      <c r="I9" s="3">
         <v>2372000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3028000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1465000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1376000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1021000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1455000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1156000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1139000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1720000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4106000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1734000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>876000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2745000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1630000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1921000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-251000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>1875000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1159000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3707000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1879000</v>
       </c>
-      <c r="H10" s="3">
-        <v>1159000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3707000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1879000</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1760000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2072000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1557000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1954000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1801000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1403000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2092000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1332000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1710000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +938,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -982,8 +995,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1038,13 +1054,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>58000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1052,50 +1071,53 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>38000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>35000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>24300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,8 +1172,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1169,120 +1194,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2547000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2711000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8108000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5654000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2747000</v>
-      </c>
       <c r="H17" s="3">
+        <v>2731000</v>
+      </c>
+      <c r="I17" s="3">
         <v>3451000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5276000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2582000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2804000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1640000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2584000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2101000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2718000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6190000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2963000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1986000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1639000</v>
+      </c>
+      <c r="E18" s="3">
         <v>601000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1411000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2462000</v>
       </c>
-      <c r="G18" s="3">
-        <v>625000</v>
-      </c>
       <c r="H18" s="3">
+        <v>634000</v>
+      </c>
+      <c r="I18" s="3">
         <v>80000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1459000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>762000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>332000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1453000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>428000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>710000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>839000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>405000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>8000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>103000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>600000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1303,103 +1335,107 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3612000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3362000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9401000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-1683000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-1689000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-453000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2057000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-46000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-236000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-18000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-316000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>548000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-235000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1884000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-709000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3457000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8214000</v>
       </c>
-      <c r="G21" s="3">
-        <v>-965000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-962000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-242000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-629000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2493000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-748000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>566000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>638000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1412,179 +1448,191 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E22" s="3">
         <v>52000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>54000</v>
       </c>
       <c r="H22" s="3">
         <v>54000</v>
       </c>
       <c r="I22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="J22" s="3">
         <v>113000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>56000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>65000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>46000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>42000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>73000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>35000</v>
       </c>
       <c r="S22" s="3">
         <v>35000</v>
       </c>
       <c r="T22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="U22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2021000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-923000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1851000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6887000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1112000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-1109000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-427000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-524000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-924000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2329000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-618000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>322000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>428000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>776000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>47000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>483000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-167000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-472000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-885000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-218000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>359000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1440000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-271000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-259000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-121000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-213000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-215000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>448000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-259000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>50000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>63000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>225000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-41000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>30000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-253000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1639,120 +1687,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1136000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-705000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1492000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5447000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-841000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-850000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-306000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-311000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-709000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1881000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-359000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>272000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>365000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>551000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>106000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>524000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-197000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-219000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1257000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-790000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1346000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5397000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-937000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-946000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-374000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-444000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-775000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1820000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-412000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>175000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>242000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>407000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>10000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>341000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-290000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-366000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1807,8 +1864,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1833,24 +1893,24 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>118000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-84000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-11000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-28000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>76000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1863,8 +1923,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1919,8 +1982,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1975,120 +2041,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3612000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1472000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3362000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9401000</v>
       </c>
-      <c r="G32" s="3">
-        <v>1683000</v>
-      </c>
       <c r="H32" s="3">
+        <v>1689000</v>
+      </c>
+      <c r="I32" s="3">
         <v>453000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1870000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1630000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2006000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>46000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>236000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>18000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>316000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-548000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>235000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1037000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1257000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-790000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1346000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5397000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-937000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-946000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-374000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-444000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-775000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1938000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-496000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>164000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>214000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>483000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>10000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>341000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-290000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-366000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2143,125 +2218,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1257000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-790000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1346000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5397000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-937000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-946000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-374000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-444000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-775000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1938000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-496000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>164000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>214000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>483000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>10000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>341000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-290000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-366000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2282,8 +2366,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2304,64 +2389,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6179000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8684000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8364000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10315000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4405000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4471000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4734000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5129000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4469000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4777000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6833000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6091000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4814000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6446000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6187000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2416,64 +2505,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6789000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6509000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6663000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7050000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6579000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6591000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6896000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6972000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7104000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7133000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7239000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7253000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7181000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7241000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7352000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2528,46 +2623,49 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1753000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1869000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1882000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2013000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1095000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>958000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1110000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1262000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1170000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1263000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2584,8 +2682,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2640,69 +2741,75 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>109087000</v>
+      </c>
+      <c r="E47" s="3">
         <v>105778000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>102693000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>96216000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>93340000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>94690000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>86853000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>82880000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>81281000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>79209000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>76822000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>79941000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>82706000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>79455000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>77837000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>691000</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>8</v>
@@ -2710,21 +2817,21 @@
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3">
         <v>687000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>713000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>726000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>760000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2734,8 +2841,8 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2752,64 +2859,70 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4737000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4745000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4756000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4760000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4751000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4765000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4776000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4769000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4780000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4791000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4802000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4813000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4824000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4840000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4852000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2864,8 +2977,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2920,64 +3036,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4713000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4171000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4182000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5652000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6799000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5787000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6080000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6018000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6745000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6736000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7635000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7313000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8394000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6722000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6984000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3032,64 +3154,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>275397000</v>
+      </c>
+      <c r="E54" s="3">
         <v>262496000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>254110000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>240781000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>249818000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>244646000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>238597000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>232819000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>220797000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>234451000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>231012000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>232294000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>235615000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>230825000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>226564000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3110,8 +3238,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3132,8 +3261,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3188,120 +3318,129 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5947000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5038000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4890000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4632000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4608000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4208000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1698000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1640000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2063000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2400000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2350000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2404000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2387000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3784000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3747000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7845000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7260000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7447000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8366000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6060000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6068000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6146000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6321000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5032000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4687000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4714000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4411000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4448000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4373000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4491000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3356,82 +3495,88 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7321000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5916000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5915000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6336000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6403000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7086000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7144000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7299000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7455000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7306000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7422000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7403000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11530000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7142000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6786000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>322000</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>679000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>724000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3444,8 +3589,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3468,8 +3613,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3524,8 +3672,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3580,8 +3731,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3636,64 +3790,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>259821000</v>
+      </c>
+      <c r="E66" s="3">
         <v>245196000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>236516000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>220695000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>236362000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>229710000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>223754000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>219676000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>206931000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>222040000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>217674000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>218775000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>222246000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>218667000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>214442000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3714,8 +3874,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3770,8 +3931,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3826,8 +3990,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3835,7 +4002,7 @@
         <v>1269000</v>
       </c>
       <c r="E70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="F70" s="3">
         <v>775000</v>
@@ -3844,7 +4011,7 @@
         <v>775000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3882,8 +4049,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3938,64 +4108,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10699000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12032000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12995000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17112000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11744000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12835000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13293000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13004000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13989000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12031000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12613000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12455000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12225000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11548000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11558000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4050,8 +4226,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4106,8 +4285,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4162,64 +4344,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14307000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16031000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16819000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19311000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12681000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14936000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14843000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13143000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13866000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12411000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13338000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13519000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13369000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12158000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12122000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4274,125 +4462,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1257000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-790000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1346000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5397000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-937000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-946000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-374000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-444000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-775000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1938000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-496000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>164000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>214000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>483000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>10000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>341000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-290000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-366000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4413,64 +4610,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E83" s="3">
         <v>162000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1506000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1275000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>93000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>131000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>433000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>239000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>104000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-195000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>184000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>164000</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4525,8 +4726,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4581,8 +4785,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4637,8 +4844,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4693,8 +4903,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4749,64 +4962,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E89" s="3">
         <v>553000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-548000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-582000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>76000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>133000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-425000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-109000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>94000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>281000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-67000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-247000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>378000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>666000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>72000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-54000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4827,64 +5046,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-33000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-39000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-38000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-24000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-35000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-30000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4939,8 +5162,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4995,64 +5221,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3855000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1562000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4147000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-70000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-993000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1348000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>459000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5073,47 +5305,48 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-76000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-146000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-69000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-70000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-74000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-141000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-68000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-69000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-73000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-15000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -5129,8 +5362,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5185,8 +5421,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5241,8 +5480,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5297,172 +5539,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1498000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5285000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2891000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2334000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>992000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4581000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3132000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>838000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-181000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>700000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-264000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2771000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1376000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4923000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2630000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>954000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E101" s="3">
         <v>12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-13000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-3000</v>
       </c>
       <c r="L101" s="3">
         <v>-3000</v>
       </c>
       <c r="M101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="N101" s="3">
         <v>-14000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-17000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2401000</v>
+      </c>
+      <c r="E102" s="3">
         <v>320000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3894000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5886000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-263000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>265000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>660000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-308000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>742000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1277000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>259000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>533000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-189000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,259 +665,271 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3698000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4186000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3312000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6697000</v>
       </c>
-      <c r="G8" s="3">
-        <v>3192000</v>
-      </c>
       <c r="H8" s="3">
+        <v>3221000</v>
+      </c>
+      <c r="I8" s="3">
         <v>3365000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3531000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6735000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3344000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3136000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3093000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3012000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3110000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2940000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3123000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6198000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3066000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2586000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1612000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1441000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1682000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4776000</v>
       </c>
-      <c r="G9" s="3">
-        <v>3443000</v>
-      </c>
       <c r="H9" s="3">
+        <v>3431000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1490000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2372000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3028000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1465000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1376000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1021000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1455000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1156000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1139000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1720000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4106000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1734000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>876000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2086000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2745000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1630000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1921000</v>
       </c>
-      <c r="G10" s="3">
-        <v>-251000</v>
-      </c>
       <c r="H10" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1875000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1159000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3707000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1879000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1760000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2072000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1557000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1954000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1801000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1403000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2092000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1332000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1710000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +951,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -998,8 +1011,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1057,17 +1073,20 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>58000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1075,49 +1094,52 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>38000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>25800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>27200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>35000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>24300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1175,8 +1197,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1195,126 +1220,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2886000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2547000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2711000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8108000</v>
       </c>
-      <c r="G17" s="3">
-        <v>5654000</v>
-      </c>
       <c r="H17" s="3">
+        <v>5710000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2731000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3451000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5276000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2582000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2804000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1640000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2584000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2101000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2718000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6190000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2963000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1986000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>812000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1639000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>601000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1411000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-2462000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-2489000</v>
+      </c>
+      <c r="I18" s="3">
         <v>634000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>80000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1459000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>762000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>332000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1453000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>428000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>710000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>839000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>405000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>8000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>103000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>600000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1336,109 +1368,113 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2546000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3362000</v>
       </c>
-      <c r="G20" s="3">
-        <v>9401000</v>
-      </c>
       <c r="H20" s="3">
+        <v>9400000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-453000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2057000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-46000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-236000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-316000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>548000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-235000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1581000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-709000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3457000</v>
       </c>
-      <c r="G21" s="3">
-        <v>8214000</v>
-      </c>
       <c r="H21" s="3">
+        <v>8241000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-962000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-242000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>22000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-629000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2493000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-748000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>566000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>638000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1451,188 +1487,200 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E22" s="3">
         <v>48000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>52000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>54000</v>
       </c>
       <c r="I22" s="3">
         <v>54000</v>
       </c>
       <c r="J22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="K22" s="3">
         <v>113000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>65000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>46000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>42000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>73000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>35000</v>
       </c>
       <c r="T22" s="3">
         <v>35000</v>
       </c>
       <c r="U22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="V22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1808000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-923000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1851000</v>
       </c>
-      <c r="G23" s="3">
-        <v>6887000</v>
-      </c>
       <c r="H23" s="3">
+        <v>6859000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-427000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-524000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-924000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2329000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-618000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>322000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>428000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>776000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>47000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>483000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-167000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-472000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-885000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-218000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>359000</v>
       </c>
-      <c r="G24" s="3">
-        <v>1440000</v>
-      </c>
       <c r="H24" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-259000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-121000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-213000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-215000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>448000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-259000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>50000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>63000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>225000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-59000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-41000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-253000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1690,126 +1738,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-705000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1492000</v>
       </c>
-      <c r="G26" s="3">
-        <v>5447000</v>
-      </c>
       <c r="H26" s="3">
+        <v>5425000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-850000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-306000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-311000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-709000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1881000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-359000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>272000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>365000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>551000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>106000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>524000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-197000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-219000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1501000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-790000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1346000</v>
       </c>
-      <c r="G27" s="3">
-        <v>5397000</v>
-      </c>
       <c r="H27" s="3">
+        <v>5375000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-946000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-374000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-444000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-775000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1820000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-412000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>175000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>242000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>407000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>341000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-290000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-366000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1867,8 +1924,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1896,24 +1956,24 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>118000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-84000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-11000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-28000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>76000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1926,8 +1986,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,8 +2048,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2044,126 +2110,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2546000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3612000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1472000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3362000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-9401000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-9400000</v>
+      </c>
+      <c r="I32" s="3">
         <v>1689000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>453000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1870000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1630000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2006000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>46000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>236000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>18000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>316000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-548000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>235000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1037000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1501000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-790000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1346000</v>
       </c>
-      <c r="G33" s="3">
-        <v>5397000</v>
-      </c>
       <c r="H33" s="3">
+        <v>5375000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-946000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-374000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-444000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-775000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1938000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-496000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>164000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>214000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>483000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>341000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-290000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-366000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2221,131 +2296,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1501000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-790000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1346000</v>
       </c>
-      <c r="G35" s="3">
-        <v>5397000</v>
-      </c>
       <c r="H35" s="3">
+        <v>5375000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-946000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-374000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-444000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-775000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1938000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-496000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>164000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>214000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>483000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>341000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-290000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-366000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2367,8 +2451,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2390,67 +2475,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6795000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6179000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8684000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8364000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10315000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4405000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4471000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4734000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5129000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4469000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4777000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6833000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6091000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4814000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6446000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6187000</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2508,67 +2597,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6887000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6789000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6509000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6663000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7050000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6579000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6591000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6896000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6972000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7104000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7133000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7239000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7253000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7181000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7241000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7352000</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2626,49 +2721,52 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1413000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1753000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1869000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1882000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2013000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1095000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>958000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1110000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1262000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1170000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1263000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2685,8 +2783,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2744,97 +2845,103 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>106006000</v>
+      </c>
+      <c r="E47" s="3">
         <v>109087000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>105778000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>102693000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>96216000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>93340000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>94690000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>86853000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>82880000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>81281000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>79209000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>76822000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>79941000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>82706000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>79455000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>77837000</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="3">
         <v>691000</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
         <v>687000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>713000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>726000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>760000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2844,8 +2951,8 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2862,67 +2969,73 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4744000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4737000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4745000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4756000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4760000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4751000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4765000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4776000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4769000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4780000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4791000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4802000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4813000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4824000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4840000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4852000</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2980,8 +3093,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3039,67 +3155,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5426000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4713000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4171000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4182000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>5652000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6799000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5787000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6080000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6018000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6745000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6736000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7635000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7313000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8394000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6722000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6984000</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3157,67 +3279,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>276832000</v>
+      </c>
+      <c r="E54" s="3">
         <v>275397000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>262496000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>254110000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>240781000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>249818000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>244646000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>238597000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>232819000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>220797000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>234451000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>231012000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>232294000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>235615000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>230825000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>226564000</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3239,8 +3367,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3262,8 +3391,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3321,126 +3451,135 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9456000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5947000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5038000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4890000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4632000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4608000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4208000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1698000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1640000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2063000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2400000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2350000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2404000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2387000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3784000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3747000</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6802000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7845000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7260000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7447000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8366000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6060000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6068000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6146000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6321000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5032000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4687000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4714000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4411000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4448000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4373000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4491000</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3498,88 +3637,94 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5105000</v>
+      </c>
+      <c r="E61" s="3">
         <v>7321000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5916000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5915000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6336000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6403000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7086000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7144000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7299000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7455000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7306000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7422000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7403000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11530000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7142000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6786000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E62" s="3">
         <v>322000</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>679000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>724000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3592,8 +3737,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3616,8 +3761,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3675,8 +3823,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3734,8 +3885,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3793,67 +3947,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>266139000</v>
+      </c>
+      <c r="E66" s="3">
         <v>259821000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>245196000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>236516000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>220695000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>236362000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>229710000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>223754000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>219676000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>206931000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>222040000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>217674000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>218775000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>222246000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>218667000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>214442000</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3875,8 +4035,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3934,8 +4095,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3993,19 +4157,22 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="E70" s="3">
         <v>1269000</v>
       </c>
       <c r="F70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="G70" s="3">
         <v>775000</v>
@@ -4014,7 +4181,7 @@
         <v>775000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4052,8 +4219,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4111,67 +4281,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8758000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10699000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12032000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12995000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17112000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11744000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12835000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>13293000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13004000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13989000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12031000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12613000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12455000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12225000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11548000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11558000</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4229,8 +4405,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4288,8 +4467,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4347,67 +4529,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9131000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14307000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16031000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16819000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19311000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12681000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14936000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14843000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13143000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13866000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12411000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13338000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13519000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13369000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12158000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12122000</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4465,131 +4653,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1501000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-790000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1346000</v>
       </c>
-      <c r="G81" s="3">
-        <v>5397000</v>
-      </c>
       <c r="H81" s="3">
+        <v>5375000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-946000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-374000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-444000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-775000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1938000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-496000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>164000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>214000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>483000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>341000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-290000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-366000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4611,67 +4808,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E83" s="3">
         <v>89000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>162000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1506000</v>
       </c>
-      <c r="G83" s="3">
-        <v>1275000</v>
-      </c>
       <c r="H83" s="3">
+        <v>1330000</v>
+      </c>
+      <c r="I83" s="3">
         <v>93000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>131000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>433000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>239000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>104000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>-195000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>184000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>164000</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4729,8 +4930,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4788,8 +4992,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4847,8 +5054,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4906,8 +5116,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4965,67 +5178,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-66000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>553000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-548000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-582000</v>
-      </c>
       <c r="H89" s="3">
+        <v>-570000</v>
+      </c>
+      <c r="I89" s="3">
         <v>76000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>133000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-425000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-109000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>94000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>281000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-67000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-247000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>378000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>666000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>72000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-54000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5047,67 +5266,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-63000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-33000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-39000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-24000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-30000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5165,8 +5388,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5224,67 +5450,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3751000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>1562000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4147000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-993000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1348000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>459000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5306,50 +5538,51 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-75000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-76000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-146000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-69000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-70000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-74000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-141000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-68000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-69000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-73000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-15000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -5365,8 +5598,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5424,8 +5660,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5483,8 +5722,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5542,181 +5784,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4436000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1498000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5285000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2891000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2334000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>992000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4581000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3132000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>838000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-181000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>700000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-264000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2771000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1376000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4923000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2630000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>954000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>22000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-13000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>1000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-3000</v>
       </c>
       <c r="M101" s="3">
         <v>-3000</v>
       </c>
       <c r="N101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="O101" s="3">
         <v>-14000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-17000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>669000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>320000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3894000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5886000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-263000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>265000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>660000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-308000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>742000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1277000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>259000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>533000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-189000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,283 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4144000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3698000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4186000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3312000</v>
       </c>
-      <c r="G8" s="3">
-        <v>6697000</v>
-      </c>
       <c r="H8" s="3">
+        <v>3519000</v>
+      </c>
+      <c r="I8" s="3">
         <v>3221000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3365000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3531000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6735000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3344000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3136000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3093000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3012000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3110000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2940000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3123000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6198000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3066000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2586000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1612000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1441000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1682000</v>
       </c>
-      <c r="G9" s="3">
-        <v>4776000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="I9" s="3">
         <v>3431000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1490000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2372000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3028000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1465000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1376000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1021000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1455000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1139000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1720000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4106000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1734000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>876000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2610000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2086000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2745000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1630000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1921000</v>
-      </c>
       <c r="H10" s="3">
+        <v>2174000</v>
+      </c>
+      <c r="I10" s="3">
         <v>-210000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1875000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1159000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3707000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1879000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1760000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2072000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1557000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1954000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1801000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1403000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2092000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1332000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1710000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +964,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1014,8 +1027,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1076,70 +1092,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>58000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
+        <v>31000</v>
+      </c>
+      <c r="I14" s="3">
         <v>12000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>38000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>25800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>27200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>35000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>24300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1200,8 +1222,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1221,132 +1246,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2650000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2886000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2547000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2711000</v>
       </c>
-      <c r="G17" s="3">
-        <v>8108000</v>
-      </c>
       <c r="H17" s="3">
+        <v>2441000</v>
+      </c>
+      <c r="I17" s="3">
         <v>5710000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2731000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3451000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5276000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2582000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2804000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1640000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2584000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2101000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2718000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6190000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2963000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1986000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="E18" s="3">
         <v>812000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1639000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>601000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-1411000</v>
-      </c>
       <c r="H18" s="3">
+        <v>1078000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2489000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>634000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>80000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1459000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>762000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>332000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1453000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>428000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>710000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>839000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>405000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>8000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>103000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>600000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1369,115 +1401,119 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1199000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2546000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="G20" s="3">
-        <v>3362000</v>
-      </c>
       <c r="H20" s="3">
+        <v>-6038000</v>
+      </c>
+      <c r="I20" s="3">
         <v>9400000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-453000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2057000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-46000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-236000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-18000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-316000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>548000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-235000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1581000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-709000</v>
       </c>
-      <c r="G21" s="3">
-        <v>3457000</v>
-      </c>
       <c r="H21" s="3">
+        <v>-4784000</v>
+      </c>
+      <c r="I21" s="3">
         <v>8241000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-962000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-242000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>22000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-629000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2493000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-748000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>566000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>638000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1490,197 +1526,209 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E22" s="3">
         <v>74000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52000</v>
       </c>
-      <c r="G22" s="3">
-        <v>100000</v>
-      </c>
       <c r="H22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="I22" s="3">
         <v>52000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>54000</v>
       </c>
       <c r="J22" s="3">
         <v>54000</v>
       </c>
       <c r="K22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="L22" s="3">
         <v>113000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>65000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>46000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>42000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>73000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>35000</v>
       </c>
       <c r="U22" s="3">
         <v>35000</v>
       </c>
       <c r="V22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="W22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1808000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-923000</v>
       </c>
-      <c r="G23" s="3">
-        <v>1851000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-5008000</v>
+      </c>
+      <c r="I23" s="3">
         <v>6859000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-427000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-524000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-924000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2329000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-618000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>322000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>428000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>776000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>47000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>483000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-167000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-472000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-408000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-885000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-218000</v>
       </c>
-      <c r="G24" s="3">
-        <v>359000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-1075000</v>
+      </c>
+      <c r="I24" s="3">
         <v>1434000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-259000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-121000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-213000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-215000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>448000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-259000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>63000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>225000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-59000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-41000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-253000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1741,132 +1789,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-705000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1492000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-3933000</v>
+      </c>
+      <c r="I26" s="3">
         <v>5425000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-850000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-306000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-311000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-709000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1881000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-359000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>272000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>365000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>551000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>106000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>524000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-197000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-219000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1501000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-790000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1346000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-4029000</v>
+      </c>
+      <c r="I27" s="3">
         <v>5375000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-946000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-374000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-444000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-775000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1820000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-412000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>175000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>242000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>407000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>341000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-290000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-366000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1927,8 +1984,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1959,24 +2019,24 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>118000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-84000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-11000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>76000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1989,8 +2049,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2051,8 +2114,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2113,132 +2179,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1199000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2546000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3612000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1472000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3362000</v>
-      </c>
       <c r="H32" s="3">
+        <v>6038000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-9400000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1689000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>453000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1870000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1630000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2006000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>46000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>236000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>18000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>316000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-548000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>235000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1037000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1501000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-790000</v>
       </c>
-      <c r="G33" s="3">
-        <v>1346000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-4029000</v>
+      </c>
+      <c r="I33" s="3">
         <v>5375000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-946000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-374000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-444000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-775000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1938000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-496000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>164000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>214000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>483000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>341000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-290000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-366000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2299,137 +2374,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1501000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-790000</v>
       </c>
-      <c r="G35" s="3">
-        <v>1346000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-4029000</v>
+      </c>
+      <c r="I35" s="3">
         <v>5375000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-946000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-374000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-444000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-775000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1938000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-496000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>164000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>214000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>483000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>341000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-290000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-366000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2452,8 +2536,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2476,70 +2561,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5761000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6795000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6179000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8684000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8364000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>10315000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4405000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4471000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4734000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5129000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4469000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4777000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6833000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6091000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4814000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6446000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6187000</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2600,70 +2689,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16936000</v>
+      </c>
+      <c r="E43" s="3">
         <v>6887000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6789000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6509000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6663000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7050000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6579000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6591000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6896000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6972000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7104000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7133000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7239000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7253000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7181000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7241000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7352000</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2724,52 +2819,55 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1413000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1753000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1869000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1882000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>2013000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1095000</v>
-      </c>
-      <c r="J45" s="3">
+        <v>1073000</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>958000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1110000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1262000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1170000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1263000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2786,8 +2884,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2848,103 +2949,109 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100895000</v>
+      </c>
+      <c r="E47" s="3">
         <v>106006000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>109087000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>105778000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102693000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>96216000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>93340000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>94690000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>86853000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>82880000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>81281000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>79209000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>76822000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>79941000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>82706000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>79455000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>77837000</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3">
         <v>691000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
         <v>687000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>713000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>726000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>760000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2954,8 +3061,8 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -2972,70 +3079,76 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4739000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4744000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4737000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4745000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4756000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4760000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4751000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4765000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4776000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4769000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4780000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4791000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4802000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4813000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4824000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4840000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4852000</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3096,8 +3209,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3158,70 +3274,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5426000</v>
+        <v>4838000</v>
       </c>
       <c r="E52" s="3">
-        <v>4713000</v>
+        <v>6839000</v>
       </c>
       <c r="F52" s="3">
-        <v>4171000</v>
+        <v>6466000</v>
       </c>
       <c r="G52" s="3">
-        <v>4182000</v>
+        <v>6040000</v>
       </c>
       <c r="H52" s="3">
-        <v>5652000</v>
+        <v>6064000</v>
       </c>
       <c r="I52" s="3">
-        <v>6799000</v>
+        <v>7665000</v>
       </c>
       <c r="J52" s="3">
+        <v>7894000</v>
+      </c>
+      <c r="K52" s="3">
         <v>5787000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6080000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6018000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6745000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6736000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7635000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7313000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8394000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6722000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6984000</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3282,70 +3404,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>285982000</v>
+      </c>
+      <c r="E54" s="3">
         <v>276832000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>275397000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>262496000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>254110000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>240781000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>249818000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>244646000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>238597000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>232819000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>220797000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>234451000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>231012000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>232294000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>235615000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>230825000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>226564000</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3368,8 +3496,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3392,8 +3521,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3454,132 +3584,141 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7935000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9456000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5947000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5038000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4890000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4632000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4608000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4208000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1698000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1640000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2063000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2400000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2350000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2404000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2387000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3784000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3747000</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5962000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6802000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7845000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7260000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7447000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8366000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6060000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6068000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6146000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6321000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5032000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4687000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4714000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4411000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4448000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4373000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4491000</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3640,94 +3779,100 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4949000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5105000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7321000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5916000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5915000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6336000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6403000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7086000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7144000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7299000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7455000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7306000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7422000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7403000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11530000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7142000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6786000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>270000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>322000</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>679000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>724000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3740,8 +3885,8 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3764,8 +3909,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3826,8 +3974,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3888,8 +4039,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3950,70 +4104,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>274250000</v>
+      </c>
+      <c r="E66" s="3">
         <v>266139000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>259821000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>245196000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>236516000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>220695000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>236362000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>229710000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>223754000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>219676000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>206931000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>222040000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>217674000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>218775000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>222246000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>218667000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>214442000</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4036,8 +4196,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4098,8 +4259,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4160,8 +4324,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4169,13 +4336,13 @@
         <v>1562000</v>
       </c>
       <c r="E70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="F70" s="3">
         <v>1269000</v>
       </c>
       <c r="G70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="H70" s="3">
         <v>775000</v>
@@ -4184,7 +4351,7 @@
         <v>775000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -4222,8 +4389,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4284,70 +4454,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8739000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8758000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10699000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12032000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12995000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>17112000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11744000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12835000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13293000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13004000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13989000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12031000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12613000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12455000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12225000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11548000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11558000</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4408,8 +4584,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4470,8 +4649,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4532,70 +4714,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10170000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9131000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14307000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16031000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16819000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19311000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12681000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14936000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14843000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13143000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13866000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12411000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13338000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13519000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13369000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12158000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12122000</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4656,137 +4844,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1501000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-790000</v>
       </c>
-      <c r="G81" s="3">
-        <v>1346000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-4029000</v>
+      </c>
+      <c r="I81" s="3">
         <v>5375000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-946000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-374000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-444000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-775000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1938000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-496000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>164000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>214000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>483000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>341000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-290000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-366000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4809,70 +5006,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E83" s="3">
         <v>153000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>89000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>162000</v>
       </c>
-      <c r="G83" s="3">
-        <v>1506000</v>
-      </c>
       <c r="H83" s="3">
+        <v>176000</v>
+      </c>
+      <c r="I83" s="3">
         <v>1330000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>93000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>131000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>433000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>239000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>104000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-195000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>184000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>164000</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4933,8 +5134,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4995,8 +5199,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5057,8 +5264,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5119,8 +5329,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5181,70 +5394,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-581000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-66000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>553000</v>
       </c>
-      <c r="G89" s="3">
-        <v>-548000</v>
-      </c>
       <c r="H89" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-570000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>76000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>133000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-425000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-109000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>94000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>281000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-67000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-247000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-23000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>378000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>666000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-54000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5267,70 +5486,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-28000</v>
       </c>
       <c r="H91" s="3">
         <v>-14000</v>
       </c>
       <c r="I91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-21000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-33000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-35000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-30000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5391,8 +5614,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5453,70 +5679,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4540000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3751000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="G94" s="3">
-        <v>1562000</v>
-      </c>
       <c r="H94" s="3">
+        <v>-2585000</v>
+      </c>
+      <c r="I94" s="3">
         <v>4147000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-993000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1348000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>459000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5539,53 +5771,54 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-74000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-75000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-76000</v>
       </c>
-      <c r="G96" s="3">
-        <v>-146000</v>
-      </c>
       <c r="H96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-69000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-70000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-74000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-141000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-68000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-69000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-73000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -5601,8 +5834,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5663,8 +5899,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5725,8 +5964,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5787,190 +6029,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3994000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4436000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1498000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5285000</v>
       </c>
-      <c r="G100" s="3">
-        <v>2891000</v>
-      </c>
       <c r="H100" s="3">
+        <v>557000</v>
+      </c>
+      <c r="I100" s="3">
         <v>2334000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>992000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4581000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3132000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>838000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-181000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-264000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2771000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1376000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4923000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2630000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>954000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>22000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12000</v>
       </c>
-      <c r="G101" s="3">
-        <v>-11000</v>
-      </c>
       <c r="H101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-13000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>1000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-3000</v>
       </c>
       <c r="N101" s="3">
         <v>-3000</v>
       </c>
       <c r="O101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="P101" s="3">
         <v>-14000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-17000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1126000</v>
+      </c>
+      <c r="E102" s="3">
         <v>669000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>320000</v>
       </c>
-      <c r="G102" s="3">
-        <v>3894000</v>
-      </c>
       <c r="H102" s="3">
+        <v>-1992000</v>
+      </c>
+      <c r="I102" s="3">
         <v>5886000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-263000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>265000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>660000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-308000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>742000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1277000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>259000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>533000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-189000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3802000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4144000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3698000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4186000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3312000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3519000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3221000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3365000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3531000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6735000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3344000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3136000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3093000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3012000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3110000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2940000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3123000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6198000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3066000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2586000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1492000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1534000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1612000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1441000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1682000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1345000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3431000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1490000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2372000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3028000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1465000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1376000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1021000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1455000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1156000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1139000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1720000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4106000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1734000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>876000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2310000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2610000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2086000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2745000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1630000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2174000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-210000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1875000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1159000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3707000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1879000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1760000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2072000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1557000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1954000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1801000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1403000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2092000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1332000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1710000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +977,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1030,8 +1043,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1095,73 +1111,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>58000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>31000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>38000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>25800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>27200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>35000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>24300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1225,8 +1247,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1247,138 +1272,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2628000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2650000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2886000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2547000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2711000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2441000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5710000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2731000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3451000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5276000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2582000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2804000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1640000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2584000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2400000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2101000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2718000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6190000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2963000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1986000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1494000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>812000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1639000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>601000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1078000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2489000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>634000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1459000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>762000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>332000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1453000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>428000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>710000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>839000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>405000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>8000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>103000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>600000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1402,121 +1434,125 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1199000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2546000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6038000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9400000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-453000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2057000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-46000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-236000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-316000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>548000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-235000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1077000</v>
+      </c>
+      <c r="E21" s="3">
         <v>390000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1581000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-709000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4784000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8241000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-962000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-242000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>22000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-629000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2493000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-748000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>566000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>638000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1529,206 +1565,218 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E22" s="3">
         <v>51000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>74000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>48000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>48000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>54000</v>
       </c>
       <c r="K22" s="3">
         <v>54000</v>
       </c>
       <c r="L22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="M22" s="3">
         <v>113000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>56000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>65000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>46000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>42000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>73000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>35000</v>
       </c>
       <c r="V22" s="3">
         <v>35000</v>
       </c>
       <c r="W22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="X22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E23" s="3">
         <v>244000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1808000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-923000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5008000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6859000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-427000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-524000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-924000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2329000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-618000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>322000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>428000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>776000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>47000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>483000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-167000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-472000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E24" s="3">
         <v>21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-408000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-885000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-218000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1075000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1434000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-259000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-121000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-213000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-215000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>448000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-259000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>63000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>225000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-59000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-41000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>30000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-253000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1792,138 +1840,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>765000</v>
+      </c>
+      <c r="E26" s="3">
         <v>223000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-705000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3933000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>5425000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-850000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-306000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-311000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-709000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1881000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-359000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>272000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>365000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>551000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>106000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>524000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-197000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-219000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E27" s="3">
         <v>97000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1501000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-790000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4029000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>5375000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-946000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-374000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-444000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-775000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1820000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-412000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>175000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>242000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>407000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>341000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-290000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-366000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1987,8 +2044,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2022,24 +2082,24 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>118000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-84000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-28000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>76000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2052,8 +2112,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2117,8 +2180,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2182,138 +2248,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1199000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2546000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3612000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1472000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6038000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9400000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1689000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>453000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1870000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1630000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2006000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>46000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>236000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>316000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-548000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>235000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1037000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E33" s="3">
         <v>97000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1501000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-790000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4029000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>5375000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-946000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-374000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-444000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-775000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1938000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-496000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>164000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>214000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>483000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>341000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-290000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-366000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2377,143 +2452,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E35" s="3">
         <v>97000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1501000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-790000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4029000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>5375000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-946000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-374000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-444000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-775000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1938000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-496000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>164000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>214000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>483000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>341000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-290000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-366000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2537,8 +2621,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2562,73 +2647,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5255000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5761000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6795000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6179000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8684000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8364000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10315000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4405000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4471000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4734000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5129000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4469000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4777000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6833000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6091000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4814000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6446000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6187000</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2692,73 +2781,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17440000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16936000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6887000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6789000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6509000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6663000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7050000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6579000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6591000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6896000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6972000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7104000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7133000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7239000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7253000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7181000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7241000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7352000</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2822,17 +2917,20 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>909000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1073000</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2848,29 +2946,29 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>958000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1110000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1262000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1170000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1263000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2887,8 +2985,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2952,73 +3053,79 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>102300000</v>
+      </c>
+      <c r="E47" s="3">
         <v>100895000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>106006000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>109087000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>105778000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>102693000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>96216000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>93340000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>94690000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>86853000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>82880000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>81281000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>79209000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>76822000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>79941000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82706000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>79455000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>77837000</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3028,33 +3135,33 @@
       <c r="E48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3">
         <v>691000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>687000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>713000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>726000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>760000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3064,8 +3171,8 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3082,73 +3189,79 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4734000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4739000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4744000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4737000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4745000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4756000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4760000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4751000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4765000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4776000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4769000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4780000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4791000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4802000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4813000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4824000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4840000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4852000</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3212,8 +3325,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3277,73 +3393,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5366000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4838000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6839000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6466000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6040000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6064000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7665000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7894000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5787000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6080000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6018000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6745000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6736000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7635000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7313000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8394000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6722000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6984000</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3407,73 +3529,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>284579000</v>
+      </c>
+      <c r="E54" s="3">
         <v>285982000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>276832000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>275397000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>262496000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>254110000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>240781000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>249818000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>244646000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>238597000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>232819000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>220797000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>234451000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>231012000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>232294000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>235615000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>230825000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>226564000</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3497,8 +3625,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3522,8 +3651,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3587,138 +3717,147 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7935000</v>
+        <v>7059000</v>
       </c>
       <c r="E58" s="3">
+        <v>8017000</v>
+      </c>
+      <c r="F58" s="3">
         <v>9456000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5947000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5038000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4890000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4632000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4608000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4208000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1698000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1640000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2063000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2400000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2350000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2404000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2387000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3784000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3747000</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5706000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5962000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6802000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7845000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7260000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7447000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8366000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6060000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6068000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6146000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6321000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5032000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4687000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4714000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4411000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4448000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4373000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4491000</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3782,73 +3921,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4949000</v>
+        <v>4772000</v>
       </c>
       <c r="E61" s="3">
+        <v>4867000</v>
+      </c>
+      <c r="F61" s="3">
         <v>5105000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7321000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5916000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5915000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6336000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6403000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7086000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7144000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7299000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7455000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7306000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7422000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7403000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11530000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7142000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6786000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3856,26 +4001,26 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>270000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>322000</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>679000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>724000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3888,8 +4033,8 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3912,8 +4057,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3977,8 +4125,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4042,8 +4193,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4107,73 +4261,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>272899000</v>
+      </c>
+      <c r="E66" s="3">
         <v>274250000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>266139000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>259821000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>245196000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>236516000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>220695000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>236362000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>229710000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>223754000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>219676000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>206931000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>222040000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>217674000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>218775000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>222246000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>218667000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>214442000</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4197,8 +4357,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4262,8 +4423,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4327,8 +4491,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4339,13 +4506,13 @@
         <v>1562000</v>
       </c>
       <c r="F70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="G70" s="3">
         <v>1269000</v>
       </c>
       <c r="H70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="I70" s="3">
         <v>775000</v>
@@ -4354,7 +4521,7 @@
         <v>775000</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4392,8 +4559,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4457,73 +4627,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8857000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8739000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8758000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10699000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12032000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12995000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>17112000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11744000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12835000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13293000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13004000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13989000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12031000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12613000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12455000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12225000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11548000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11558000</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4587,8 +4763,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4652,8 +4831,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4717,73 +4899,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10118000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10170000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9131000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14307000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16031000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16819000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19311000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12681000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14936000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14843000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13143000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13866000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12411000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13338000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13519000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13369000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12158000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12122000</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4847,143 +5035,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>658000</v>
+      </c>
+      <c r="E81" s="3">
         <v>97000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1501000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-790000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4029000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>5375000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-946000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-374000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-444000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-775000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1938000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-496000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>164000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>214000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>483000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>341000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-290000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-366000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5007,73 +5204,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E83" s="3">
         <v>95000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>153000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>89000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>162000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>176000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1330000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>93000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>131000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>433000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>239000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>104000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>-195000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>184000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>164000</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5137,8 +5338,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5202,8 +5406,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5267,8 +5474,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5332,8 +5542,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5397,73 +5610,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-581000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-66000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>553000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-570000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>76000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>133000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-425000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-109000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>94000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>281000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-247000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-23000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>378000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>666000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>72000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-54000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5487,73 +5706,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-63000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-14000</v>
       </c>
       <c r="I91" s="3">
         <v>-14000</v>
       </c>
       <c r="J91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-21000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-24000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-35000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-30000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5617,8 +5840,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5682,73 +5908,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2484000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4540000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3751000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2585000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>4147000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-70000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-993000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1348000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>459000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5772,56 +6004,57 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-76000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-74000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-75000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-76000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-77000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-69000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-70000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-74000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-141000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-68000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-69000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-73000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-15000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -5837,8 +6070,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5902,8 +6138,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5967,8 +6206,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6032,199 +6274,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3994000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4436000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1498000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5285000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>557000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2334000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>992000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4581000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3132000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>838000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-181000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>700000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-264000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2771000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1376000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4923000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2630000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>954000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>22000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-13000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>1000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-3000</v>
       </c>
       <c r="O101" s="3">
         <v>-3000</v>
       </c>
       <c r="P101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-17000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-506000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1126000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>669000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>320000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1992000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5886000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-263000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>265000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>660000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-308000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>742000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1277000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>259000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>533000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-189000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3855000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3802000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4144000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3698000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4186000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3312000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3519000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3221000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3365000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3531000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6735000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3344000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3136000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3093000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3012000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3110000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2940000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3123000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6198000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3066000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2586000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1461000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1492000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1534000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1612000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1441000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1682000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1345000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3431000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1490000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2372000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3028000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1465000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1376000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1021000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1455000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1156000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1139000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1720000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4106000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1734000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>876000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2394000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2310000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2610000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2086000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2745000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1630000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2174000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-210000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1875000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1159000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3707000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1879000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1760000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2072000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1557000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1954000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1801000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1403000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2092000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1332000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1710000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1114,8 +1130,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1123,67 +1142,70 @@
         <v>2000</v>
       </c>
       <c r="E14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>58000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>31000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>38000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>7000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>27200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>35000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>24300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1250,8 +1272,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1273,144 +1298,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2795000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2628000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2650000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2886000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2547000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2711000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2441000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5710000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2731000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3451000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5276000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2582000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2804000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1640000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2584000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2101000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2718000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6190000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2963000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1986000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1174000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1494000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>812000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1639000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>601000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1078000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2489000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>634000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>80000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1459000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>762000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>332000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1453000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>428000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>710000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>839000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>405000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>8000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>103000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>600000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1435,127 +1467,131 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-535000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-185000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1199000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2546000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6038000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9400000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-453000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2057000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-46000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-236000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-18000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-316000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>548000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-235000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1077000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>390000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1581000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-709000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4784000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8241000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-962000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-242000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-629000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2493000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-748000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>566000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>638000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1568,215 +1604,227 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E22" s="3">
         <v>59000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>51000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>74000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>48000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>52000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>52000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>54000</v>
       </c>
       <c r="L22" s="3">
         <v>54000</v>
       </c>
       <c r="M22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="N22" s="3">
         <v>113000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>56000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>65000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>46000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>45000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>42000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>73000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>35000</v>
       </c>
       <c r="W22" s="3">
         <v>35000</v>
       </c>
       <c r="X22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E23" s="3">
         <v>930000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>244000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1808000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-923000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5008000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6859000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-427000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-524000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-924000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2329000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-618000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>322000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>428000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>776000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>47000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>483000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-167000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-472000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E24" s="3">
         <v>165000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-408000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-885000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-218000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1075000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1434000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-259000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-121000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-213000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-215000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>448000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-259000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>50000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>63000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>225000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-59000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-41000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>30000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-253000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1843,144 +1891,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E26" s="3">
         <v>765000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>223000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-705000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3933000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5425000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-850000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-306000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-311000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-709000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1881000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-359000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>272000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>365000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>551000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>106000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>524000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-197000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-219000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E27" s="3">
         <v>658000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>97000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1501000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-790000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4029000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5375000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-946000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-374000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-444000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-775000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1820000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-412000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>175000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>242000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>407000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>341000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-290000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-366000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2047,8 +2104,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2085,24 +2145,24 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>118000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-11000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-28000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>76000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2115,8 +2175,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2183,8 +2246,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2251,144 +2317,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>535000</v>
+      </c>
+      <c r="E32" s="3">
         <v>185000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1199000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2546000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3612000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1472000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6038000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9400000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1689000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>453000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1870000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1630000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2006000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>46000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>236000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>18000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>316000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-548000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>235000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1037000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E33" s="3">
         <v>658000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>97000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1501000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-790000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4029000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5375000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-946000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-374000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-444000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-775000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1938000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-496000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>164000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>214000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>483000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>341000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-290000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-366000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2455,149 +2530,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E35" s="3">
         <v>658000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>97000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1501000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-790000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4029000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5375000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-946000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-374000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-444000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-775000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1938000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-496000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>164000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>214000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>483000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>341000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-290000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-366000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2622,8 +2706,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2648,76 +2733,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5188000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5255000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5761000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6795000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6179000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8684000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8364000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10315000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4405000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4471000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4734000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5129000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4469000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4777000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6833000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6091000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4814000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6446000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6187000</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2784,76 +2873,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>17278000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17440000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16936000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6887000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6789000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6509000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6663000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7050000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6579000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6591000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6896000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6972000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7104000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7133000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7239000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7253000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7181000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7241000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7352000</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2920,20 +3015,23 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1504000</v>
+      </c>
+      <c r="E45" s="3">
         <v>909000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1073000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2949,29 +3047,29 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>958000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1110000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1262000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1170000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1263000</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2988,8 +3086,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3056,76 +3157,82 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>105306000</v>
+      </c>
+      <c r="E47" s="3">
         <v>102300000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100895000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>106006000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>109087000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>105778000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>102693000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>96216000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>93340000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>94690000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>86853000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>82880000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>81281000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>79209000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>76822000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>79941000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82706000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>79455000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>77837000</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3138,33 +3245,33 @@
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3">
         <v>691000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>687000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>713000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>726000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>760000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3174,8 +3281,8 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3192,76 +3299,82 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4728000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4734000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4739000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4744000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4737000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4745000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4756000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4760000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4751000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4765000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4776000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4769000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4780000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4791000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4802000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4813000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4824000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4840000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4852000</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3328,8 +3441,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3396,76 +3512,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5491000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5366000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4838000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6839000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6466000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6040000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6064000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7665000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7894000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5787000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6080000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6018000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6745000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6736000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7635000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7313000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8394000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6722000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6984000</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3532,76 +3654,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>292262000</v>
+      </c>
+      <c r="E54" s="3">
         <v>284579000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>285982000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>276832000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>275397000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>262496000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>254110000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>240781000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>249818000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>244646000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>238597000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>232819000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>220797000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>234451000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>231012000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>232294000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>235615000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>230825000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>226564000</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3626,8 +3754,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3652,8 +3781,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3720,144 +3850,153 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6636000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7059000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8017000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9456000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5947000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5038000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4890000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4632000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4608000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4208000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1698000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1640000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2063000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2400000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2350000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2404000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2387000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3784000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3747000</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6264000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5706000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5962000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6802000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7845000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7260000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7447000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8366000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6060000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6068000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6146000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6321000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5032000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4687000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4714000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4411000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4448000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4373000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4491000</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3924,76 +4063,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11848000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4772000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4867000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5105000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7321000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5916000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5915000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6336000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6403000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7086000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7144000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7299000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7455000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7306000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7422000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7403000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11530000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7142000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6786000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4004,26 +4149,26 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>270000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>322000</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>679000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>724000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4036,8 +4181,8 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4060,8 +4205,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4128,8 +4276,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4196,8 +4347,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4264,76 +4418,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>280743000</v>
+      </c>
+      <c r="E66" s="3">
         <v>272899000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>274250000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>266139000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>259821000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>245196000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>236516000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>220695000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>236362000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>229710000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>223754000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>219676000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>206931000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>222040000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>217674000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>218775000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>222246000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>218667000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>214442000</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4358,8 +4518,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4426,8 +4587,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4494,8 +4658,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4509,13 +4676,13 @@
         <v>1562000</v>
       </c>
       <c r="G70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="H70" s="3">
         <v>1269000</v>
       </c>
       <c r="I70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="J70" s="3">
         <v>775000</v>
@@ -4524,7 +4691,7 @@
         <v>775000</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4562,8 +4729,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4630,76 +4800,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8880000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8857000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8739000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8758000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10699000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12032000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12995000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>17112000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11744000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12835000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13293000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13004000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13989000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12031000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12613000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12455000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12225000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11548000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11558000</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4766,8 +4942,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4834,8 +5013,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4902,76 +5084,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9957000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10118000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10170000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9131000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14307000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16031000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16819000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19311000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12681000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14936000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14843000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13143000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13866000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12411000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13338000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13519000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13369000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12158000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12122000</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5038,149 +5226,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E81" s="3">
         <v>658000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>97000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1501000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-790000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4029000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5375000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-946000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-374000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-444000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-775000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1938000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-496000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>164000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>214000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>483000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>341000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-290000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-366000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5205,76 +5402,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E83" s="3">
         <v>88000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>95000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>153000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>89000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>162000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>176000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1330000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>131000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>433000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>239000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>104000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>-195000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>184000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>164000</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5341,8 +5542,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5409,8 +5613,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5477,8 +5684,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5545,8 +5755,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5613,76 +5826,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-402000</v>
+      </c>
+      <c r="E89" s="3">
         <v>241000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-581000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-66000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>553000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-570000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>76000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>133000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-425000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-109000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>94000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>281000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-67000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-247000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-23000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>378000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>666000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>72000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-54000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5707,76 +5926,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-41000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-14000</v>
       </c>
       <c r="J91" s="3">
         <v>-14000</v>
       </c>
       <c r="K91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-21000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-39000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-39000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-35000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-43000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-30000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5843,8 +6066,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5911,76 +6137,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1914000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2484000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4540000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3751000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2585000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4147000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-70000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-993000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1348000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>459000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6005,59 +6237,60 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-74000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-76000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-74000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-75000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-76000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-77000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-69000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-70000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-74000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-141000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-68000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-69000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-15000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -6073,8 +6306,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6141,8 +6377,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6209,8 +6448,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6277,208 +6519,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2330000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1751000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3994000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4436000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1498000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5285000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>557000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2334000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>992000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4581000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3132000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>838000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-181000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>700000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-264000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2771000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1376000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4923000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2630000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>954000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-14000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>22000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-13000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>1000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-3000</v>
       </c>
       <c r="P101" s="3">
         <v>-3000</v>
       </c>
       <c r="Q101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="R101" s="3">
         <v>-14000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-17000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-506000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1126000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>669000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>320000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1992000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5886000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-263000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>265000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>660000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-308000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>742000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1277000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>259000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>533000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-189000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3113000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3855000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3802000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4144000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3698000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4186000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3312000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3519000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3221000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3365000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3531000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6735000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3344000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3136000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3093000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3012000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3110000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2940000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3123000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6198000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3066000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2586000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1797000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1461000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1492000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1534000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1612000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1441000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1682000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1345000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3431000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1490000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2372000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3028000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1465000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1376000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1021000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1455000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1156000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1139000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1720000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4106000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1734000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>876000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2394000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2310000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2610000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2086000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2745000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1630000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2174000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-210000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1875000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1159000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3707000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1879000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1760000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2072000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1557000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1954000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1801000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1403000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2092000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1332000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1710000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1062,8 +1075,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1133,79 +1149,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2000</v>
+        <v>-10000</v>
       </c>
       <c r="E14" s="3">
         <v>2000</v>
       </c>
       <c r="F14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="3">
         <v>-5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>58000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>31000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>38000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>25800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>27200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>35000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>24300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1275,8 +1297,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1299,150 +1324,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2795000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2628000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2650000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2886000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2547000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2711000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2441000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5710000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2731000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3451000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5276000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2582000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2804000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1640000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2584000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2101000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2718000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6190000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2963000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1986000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1060000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1174000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1494000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>812000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1639000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>601000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1078000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2489000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>634000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>80000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1459000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>762000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>332000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1453000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>428000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>710000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>839000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>405000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>8000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>103000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>600000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1468,133 +1500,137 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>821000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-535000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-185000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1199000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2546000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6038000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9400000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-453000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2057000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-46000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-236000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-18000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-316000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>548000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-235000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1014000</v>
+      </c>
+      <c r="E21" s="3">
         <v>686000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1077000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>390000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1581000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-709000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4784000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8241000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-962000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-242000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-629000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2493000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-748000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>566000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>638000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1607,224 +1643,236 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E22" s="3">
         <v>60000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>59000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>51000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>74000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>48000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>52000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>48000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>54000</v>
       </c>
       <c r="M22" s="3">
         <v>54000</v>
       </c>
       <c r="N22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="O22" s="3">
         <v>113000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>56000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>65000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>46000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>45000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>42000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>73000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>35000</v>
       </c>
       <c r="X22" s="3">
         <v>35000</v>
       </c>
       <c r="Y22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>787000</v>
+      </c>
+      <c r="E23" s="3">
         <v>465000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>930000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>244000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1808000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-923000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5008000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6859000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-427000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-524000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-924000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2329000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-618000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>322000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>428000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>776000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>47000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>483000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-167000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-472000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E24" s="3">
         <v>77000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>165000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-408000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-885000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-218000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1075000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1434000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-259000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-121000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-213000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-215000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>448000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-259000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>50000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>63000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>225000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-59000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-41000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>30000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-253000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1894,150 +1942,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E26" s="3">
         <v>388000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>765000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>223000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-705000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3933000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5425000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-850000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-306000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-311000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-709000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1881000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-359000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>272000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>365000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>551000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>106000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>524000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-197000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-219000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E27" s="3">
         <v>228000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>658000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>97000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1501000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-790000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4029000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5375000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-946000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-374000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-444000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-775000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1820000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-412000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>175000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>242000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>407000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>341000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-290000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-366000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2107,31 +2164,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2148,24 +2208,24 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>118000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-84000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-11000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-28000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>76000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2178,8 +2238,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2249,8 +2312,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2320,150 +2386,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-821000</v>
+      </c>
+      <c r="E32" s="3">
         <v>535000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>185000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1199000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2546000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3612000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1472000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6038000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9400000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1689000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>453000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1870000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1630000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2006000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>46000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>236000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>18000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>316000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-548000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>235000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1037000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E33" s="3">
         <v>228000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>658000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>97000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1501000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-790000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4029000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5375000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-946000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-374000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-444000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-775000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1938000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-496000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>164000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>214000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>483000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>341000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-290000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-366000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2533,155 +2608,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E35" s="3">
         <v>228000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>658000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>97000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1501000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-790000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4029000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5375000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-946000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-374000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-444000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-775000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1938000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-496000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>164000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>214000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>483000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>341000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-290000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-366000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2707,8 +2791,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2734,79 +2819,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5713000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5188000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5255000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5761000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6795000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6179000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8684000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8364000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10315000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4405000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4471000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4734000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5129000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4469000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4777000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6833000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6091000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4814000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6446000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6187000</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2876,79 +2965,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16804000</v>
+      </c>
+      <c r="E43" s="3">
         <v>17278000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17440000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16936000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6887000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6789000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6509000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6663000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7050000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6579000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6591000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6896000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6972000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7104000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7133000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7239000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7253000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7181000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7241000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7352000</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3018,23 +3113,26 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1693000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1504000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>909000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1073000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3050,29 +3148,29 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>958000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1110000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1262000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1170000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1263000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3089,8 +3187,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3160,79 +3261,85 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>99887000</v>
+      </c>
+      <c r="E47" s="3">
         <v>105306000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>102300000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100895000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>106006000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>109087000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>105778000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>102693000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>96216000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>93340000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>94690000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>86853000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>82880000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81281000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>79209000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>76822000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>79941000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82706000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>79455000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>77837000</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3248,33 +3355,33 @@
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3">
         <v>691000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>687000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>713000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>726000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>760000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3284,8 +3391,8 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
@@ -3302,79 +3409,85 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4723000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4728000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4734000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4739000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4744000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4737000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4745000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4756000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4760000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4751000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4765000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4776000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4769000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4780000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4791000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4802000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4813000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4824000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4840000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4852000</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3444,8 +3557,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3515,79 +3631,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6592000</v>
+      </c>
+      <c r="E52" s="3">
         <v>5491000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5366000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4838000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6839000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6466000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6040000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6064000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7665000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7894000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5787000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6080000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6018000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6745000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6736000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7635000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7313000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8394000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6722000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6984000</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3657,79 +3779,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>277658000</v>
+      </c>
+      <c r="E54" s="3">
         <v>292262000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>284579000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>285982000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>276832000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>275397000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>262496000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>254110000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>240781000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>249818000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>244646000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>238597000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>232819000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>220797000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>234451000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>231012000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>232294000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>235615000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>230825000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>226564000</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3755,8 +3883,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3782,8 +3911,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3853,150 +3983,159 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5992000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6636000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7059000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8017000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9456000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5947000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5038000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4890000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4632000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4608000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4208000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1698000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1640000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2063000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2400000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2350000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2404000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2387000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3784000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3747000</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7007000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6264000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5706000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5962000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6802000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7845000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7260000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7447000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8366000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6060000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6068000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6146000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6321000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5032000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4687000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4714000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4411000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4448000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4373000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4491000</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4066,84 +4205,90 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5318000</v>
+      </c>
+      <c r="E61" s="3">
         <v>11848000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4772000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4867000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5105000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7321000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5916000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5915000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6336000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6403000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7086000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7144000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7299000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7455000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7306000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7422000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7403000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11530000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7142000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6786000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4152,26 +4297,26 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>270000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>322000</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>679000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>724000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4184,8 +4329,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4208,8 +4353,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4279,8 +4427,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4350,8 +4501,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4421,79 +4575,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>269704000</v>
+      </c>
+      <c r="E66" s="3">
         <v>280743000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>272899000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>274250000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>266139000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>259821000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>245196000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>236516000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>220695000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>236362000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>229710000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>223754000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>219676000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>206931000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>222040000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>217674000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>218775000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>222246000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>218667000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>214442000</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4519,8 +4679,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4590,8 +4751,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4661,8 +4825,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4679,13 +4846,13 @@
         <v>1562000</v>
       </c>
       <c r="H70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="I70" s="3">
         <v>1269000</v>
       </c>
       <c r="J70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="K70" s="3">
         <v>775000</v>
@@ -4694,7 +4861,7 @@
         <v>775000</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -4732,8 +4899,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4803,79 +4973,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9312000</v>
+      </c>
+      <c r="E72" s="3">
         <v>8880000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8857000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8739000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8758000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10699000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12032000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12995000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>17112000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11744000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12835000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13293000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13004000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13989000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12031000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12613000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12455000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12225000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11548000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11558000</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4945,8 +5121,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5016,8 +5195,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5087,79 +5269,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6392000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9957000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10118000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10170000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9131000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14307000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16031000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16819000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19311000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12681000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14936000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14843000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13143000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13866000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12411000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13338000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13519000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13369000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12158000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12122000</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5229,155 +5417,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E81" s="3">
         <v>228000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>658000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>97000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1501000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-790000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4029000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5375000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-946000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-374000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-444000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-775000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1938000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-496000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>164000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>214000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>483000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>341000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-290000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-366000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5403,79 +5600,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E83" s="3">
         <v>161000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>88000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>95000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>153000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>89000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>162000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>176000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1330000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>93000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>131000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>433000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>239000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>104000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>-195000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>184000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>164000</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5545,8 +5746,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5616,8 +5820,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5687,8 +5894,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5758,8 +5968,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5829,79 +6042,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-730000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-402000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>241000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-581000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-66000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>553000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-570000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>76000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>133000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-425000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-109000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>94000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>281000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-67000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-247000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-23000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>378000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>666000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>72000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-54000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5927,79 +6146,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-41000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-14000</v>
       </c>
       <c r="K91" s="3">
         <v>-14000</v>
       </c>
       <c r="L91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-21000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-35000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-43000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6069,8 +6292,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6140,79 +6366,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1914000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2484000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4540000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3751000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2585000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4147000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-70000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-993000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1348000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>459000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6238,62 +6470,63 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-72000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-74000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-76000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-74000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-75000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-76000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-77000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-69000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-70000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-74000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-141000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-68000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-73000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-15000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -6309,8 +6542,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6380,8 +6616,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6451,8 +6690,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6522,217 +6764,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2330000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1751000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3994000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4436000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1498000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5285000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>557000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2334000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>992000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4581000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3132000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>838000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-181000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>700000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-264000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2771000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1376000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4923000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2630000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>954000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>1000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-3000</v>
       </c>
       <c r="Q101" s="3">
         <v>-3000</v>
       </c>
       <c r="R101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="S101" s="3">
         <v>-14000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>525000</v>
+      </c>
+      <c r="E102" s="3">
         <v>11000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-506000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1126000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>669000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>320000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1992000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5886000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-263000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>265000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>660000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-308000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>742000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1277000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>259000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>533000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-189000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2948000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3113000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3855000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3802000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4144000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3698000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4186000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3312000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3519000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3221000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3365000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3531000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6735000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3344000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3136000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3093000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3012000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3110000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2940000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3123000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6198000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3066000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2586000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1617000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1797000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1461000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1492000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1534000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1612000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1441000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1682000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1345000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3431000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1490000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2372000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3028000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1465000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1376000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1021000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1455000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1156000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1139000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1720000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4106000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1734000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>876000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1316000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2394000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2310000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2610000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2086000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2745000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1630000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2174000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-210000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1875000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1159000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3707000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1879000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1760000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2072000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1557000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1954000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1801000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1403000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2092000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1332000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1710000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1016,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1091,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1152,82 +1168,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-10000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2000</v>
       </c>
       <c r="F14" s="3">
         <v>2000</v>
       </c>
       <c r="G14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="3">
         <v>-5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>58000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>31000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>38000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>25800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>27200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>35000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>24300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1300,8 +1322,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1325,156 +1350,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2887000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2795000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2628000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2650000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2886000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2547000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2711000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2441000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5710000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2731000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3451000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5276000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2582000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2804000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1640000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2584000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2400000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2101000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2718000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6190000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2963000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1986000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E18" s="3">
         <v>13000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1060000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1174000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1494000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>812000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1639000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>601000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1078000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2489000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>634000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>80000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1459000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>762000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>332000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1453000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>428000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>710000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>839000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>405000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>8000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>103000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>600000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1501,139 +1533,143 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2229000</v>
+      </c>
+      <c r="E20" s="3">
         <v>821000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-535000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-185000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1199000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2546000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6038000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9400000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-453000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2057000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-46000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-236000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-18000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-316000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>548000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-235000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2481000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1014000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>686000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1077000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>390000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1581000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-709000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4784000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8241000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-962000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-242000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-629000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2493000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-748000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>566000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>638000</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1646,233 +1682,245 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="3">
         <v>47000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>60000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>59000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>74000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>48000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>52000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>48000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>54000</v>
       </c>
       <c r="N22" s="3">
         <v>54000</v>
       </c>
       <c r="O22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="P22" s="3">
         <v>113000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>56000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>65000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>60000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>46000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>45000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>42000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>73000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>35000</v>
       </c>
       <c r="Y22" s="3">
         <v>35000</v>
       </c>
       <c r="Z22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2240000</v>
+      </c>
+      <c r="E23" s="3">
         <v>787000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>465000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>930000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>244000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1808000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-923000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5008000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6859000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-427000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-524000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-924000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2329000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-618000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>322000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>428000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>776000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>47000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>483000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-167000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-472000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>467000</v>
+      </c>
+      <c r="E24" s="3">
         <v>148000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>77000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>165000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-408000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-885000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-218000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1075000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1434000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-259000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-121000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-213000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-215000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>448000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-259000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>50000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>63000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>225000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-59000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-41000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>30000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-253000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1945,156 +1993,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="E26" s="3">
         <v>639000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>388000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>765000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>223000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-705000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3933000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5425000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-850000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-306000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-311000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-709000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1881000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-359000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>272000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>365000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>551000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>106000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>524000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-197000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-219000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1702000</v>
+      </c>
+      <c r="E27" s="3">
         <v>559000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>228000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>658000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>97000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1501000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-790000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4029000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5375000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-946000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-374000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-444000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-775000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1820000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-412000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>175000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>242000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>407000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>341000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-290000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-366000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2167,8 +2224,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2193,8 +2253,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2211,24 +2271,24 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>118000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-84000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-11000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-28000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>76000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2241,8 +2301,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2315,8 +2378,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2389,156 +2455,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2229000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-821000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>535000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>185000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1199000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2546000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3612000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1472000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6038000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9400000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1689000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>453000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1870000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1630000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2006000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>46000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>236000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>18000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>316000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-548000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>235000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1037000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1702000</v>
+      </c>
+      <c r="E33" s="3">
         <v>559000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>228000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>658000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>97000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1501000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-790000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4029000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5375000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-946000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-374000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-444000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-775000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1938000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-496000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>164000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>214000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>483000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>341000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-290000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-366000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2611,161 +2686,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1702000</v>
+      </c>
+      <c r="E35" s="3">
         <v>559000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>228000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>658000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>97000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1501000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-790000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4029000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5375000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-946000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-374000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-444000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-775000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1938000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-496000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>164000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>214000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>483000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>341000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-290000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-366000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2792,8 +2876,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2820,82 +2905,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5109000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5713000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5188000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5255000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5761000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6795000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6179000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8684000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8364000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10315000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4405000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4471000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4734000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5129000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4469000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4777000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6833000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6091000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4814000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6446000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6187000</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2968,82 +3057,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16424000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16804000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17278000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17440000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16936000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6887000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6789000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6509000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6663000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7050000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6579000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6591000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6896000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6972000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7104000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7133000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7239000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7253000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7181000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7241000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7352000</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3116,22 +3211,25 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1693000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1504000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>909000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1073000</v>
+        <v>1747000</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
@@ -3151,29 +3249,29 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>958000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1110000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1262000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1170000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1263000</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3190,8 +3288,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3264,82 +3365,88 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>94890000</v>
+      </c>
+      <c r="E47" s="3">
         <v>99887000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>105306000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>102300000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100895000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>106006000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>109087000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>105778000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102693000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>96216000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>93340000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94690000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>86853000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>82880000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81281000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>79209000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>76822000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>79941000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>82706000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>79455000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>77837000</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3358,33 +3465,33 @@
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3">
         <v>691000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>687000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>713000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>726000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>760000</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3394,8 +3501,8 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3412,82 +3519,88 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4721000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4723000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4728000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4734000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4739000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4744000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4737000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4745000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4756000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4760000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4751000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4765000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4776000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4769000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4780000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4791000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4802000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4813000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4824000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4840000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4852000</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3560,8 +3673,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3634,82 +3750,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6592000</v>
+        <v>7541000</v>
       </c>
       <c r="E52" s="3">
-        <v>5491000</v>
+        <v>8285000</v>
       </c>
       <c r="F52" s="3">
-        <v>5366000</v>
+        <v>6995000</v>
       </c>
       <c r="G52" s="3">
-        <v>4838000</v>
+        <v>6275000</v>
       </c>
       <c r="H52" s="3">
+        <v>5911000</v>
+      </c>
+      <c r="I52" s="3">
         <v>6839000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6466000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6040000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6064000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7665000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7894000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>5787000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6080000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6018000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6745000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6736000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7635000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7313000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8394000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6722000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6984000</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3782,82 +3904,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>253482000</v>
+      </c>
+      <c r="E54" s="3">
         <v>277658000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>292262000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>284579000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>285982000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276832000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>275397000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>262496000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>254110000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>240781000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>249818000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>244646000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>238597000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>232819000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>220797000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>234451000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>231012000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>232294000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>235615000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>230825000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>226564000</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3884,8 +4012,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3912,8 +4041,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3986,156 +4116,165 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6820000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5992000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6636000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7059000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8017000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9456000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5947000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5038000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4890000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4632000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4608000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4208000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1698000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1640000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2063000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2400000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2350000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2404000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2387000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3784000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3747000</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5786000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7007000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6264000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5706000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5962000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6802000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7845000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7260000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7447000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8366000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6060000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6068000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6146000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6321000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5032000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4687000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4714000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4411000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4448000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4373000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4491000</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4208,90 +4347,96 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5698000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5318000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11848000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4772000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4867000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5105000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7321000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5916000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5915000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6336000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6403000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7086000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7144000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7299000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7455000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7306000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7422000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7403000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11530000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7142000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6786000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -4300,26 +4445,26 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>270000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>322000</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>679000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>724000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4332,8 +4477,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4356,8 +4501,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4430,8 +4578,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4504,8 +4655,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4578,82 +4732,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>247893000</v>
+      </c>
+      <c r="E66" s="3">
         <v>269704000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>280743000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>272899000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>274250000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>266139000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>259821000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>245196000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>236516000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>220695000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>236362000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>229710000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>223754000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>219676000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>206931000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>222040000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>217674000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>218775000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>222246000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>218667000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>214442000</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4680,8 +4840,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4754,8 +4915,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4828,8 +4992,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4849,13 +5016,13 @@
         <v>1562000</v>
       </c>
       <c r="I70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="J70" s="3">
         <v>1269000</v>
       </c>
       <c r="K70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="L70" s="3">
         <v>775000</v>
@@ -4864,7 +5031,7 @@
         <v>775000</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4902,8 +5069,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4976,82 +5146,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10718000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9312000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8880000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8857000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8739000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8758000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10699000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12032000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12995000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>17112000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11744000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12835000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13293000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13004000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13989000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12031000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12613000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12455000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12225000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11548000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11558000</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5124,8 +5300,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5198,8 +5377,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5272,82 +5454,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4027000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6392000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9957000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10118000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10170000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9131000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14307000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16031000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16819000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19311000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12681000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14936000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14843000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13143000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13866000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12411000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13338000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13519000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13369000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12158000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12122000</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5420,161 +5608,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1702000</v>
+      </c>
+      <c r="E81" s="3">
         <v>559000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>228000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>658000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>97000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1501000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-790000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4029000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5375000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-946000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-374000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-444000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-775000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1938000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-496000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>164000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>214000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>483000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>341000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-290000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-366000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5601,82 +5798,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E83" s="3">
         <v>180000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>161000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>88000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>95000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>153000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>89000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>162000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>176000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1330000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>93000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>131000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>433000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>239000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>104000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-195000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>184000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>164000</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>8</v>
+      <c r="X83" s="3">
+        <v>0</v>
       </c>
       <c r="Y83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5749,8 +5950,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5823,8 +6027,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5897,8 +6104,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5971,8 +6181,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6045,82 +6258,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-730000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-402000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>241000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-581000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-66000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>553000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-570000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>76000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>133000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-425000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-109000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>94000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>281000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-67000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-247000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-23000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>378000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>666000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>72000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-54000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6147,82 +6366,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-27000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-41000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-14000</v>
       </c>
       <c r="L91" s="3">
         <v>-14000</v>
       </c>
       <c r="M91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-21000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-39000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-39000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-35000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-43000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-30000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6295,8 +6518,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6369,82 +6595,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1577000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-171000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1914000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2484000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4540000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3751000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2585000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>4147000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-993000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1348000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>459000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6471,65 +6703,66 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-70000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-72000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-74000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-76000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-74000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-75000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-76000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-77000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-69000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-70000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-74000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-141000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-69000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-73000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-15000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -6545,8 +6778,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6619,8 +6855,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6693,8 +6932,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6767,226 +7009,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1108000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1437000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2330000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1751000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3994000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4436000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1498000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5285000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>557000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2334000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>992000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4581000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3132000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>838000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-181000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>700000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-264000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2771000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1376000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4923000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2630000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>954000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>22000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-3000</v>
       </c>
       <c r="R101" s="3">
         <v>-3000</v>
       </c>
       <c r="S101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="T101" s="3">
         <v>-14000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-17000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-604000</v>
+      </c>
+      <c r="E102" s="3">
         <v>525000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-506000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1126000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>669000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>320000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1992000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5886000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-263000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>265000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>660000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-308000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>742000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1277000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>259000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>533000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-189000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,343 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3208000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2948000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3113000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3855000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3802000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4144000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3698000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4186000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3312000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3519000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3221000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3365000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3531000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6735000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3344000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3136000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3093000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3012000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3110000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2940000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3123000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6198000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3066000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2586000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1371000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1617000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1797000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1461000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1492000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1534000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1612000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1441000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1682000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1345000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3431000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1490000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2372000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3028000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1465000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1376000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1021000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1455000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1156000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1139000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1720000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4106000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1734000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>876000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1837000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1331000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1316000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2394000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2310000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2610000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2086000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2745000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1630000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2174000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-210000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1875000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1159000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3707000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1879000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1760000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2072000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1557000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1954000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1801000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1403000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2092000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1332000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1710000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1029,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1107,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1171,85 +1187,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-10000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2000</v>
       </c>
       <c r="G14" s="3">
         <v>2000</v>
       </c>
       <c r="H14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="3">
         <v>-5000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>58000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>31000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>38000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>7000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>27200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>35000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>24300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1325,8 +1347,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1351,162 +1376,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2806000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2887000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2795000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2628000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2650000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2886000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2547000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2711000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2441000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5710000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2731000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3451000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5276000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2582000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2804000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1640000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2584000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2400000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2101000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2718000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6190000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2963000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1986000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E18" s="3">
         <v>61000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1060000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1174000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1494000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>812000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1639000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>601000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1078000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2489000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>634000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>80000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1459000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>762000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>332000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1453000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>428000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>710000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>839000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>405000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>8000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>103000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>600000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1534,145 +1566,149 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2229000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>821000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-535000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-185000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1199000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2546000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6038000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9400000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-453000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2057000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-46000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-236000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-18000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-316000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>548000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-235000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2481000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1014000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>686000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1077000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>390000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1581000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-709000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4784000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8241000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-962000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-242000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-629000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2493000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-748000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>566000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>638000</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1685,242 +1721,254 @@
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E22" s="3">
         <v>50000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>47000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>60000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>51000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>74000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>48000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>54000</v>
       </c>
       <c r="O22" s="3">
         <v>54000</v>
       </c>
       <c r="P22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>113000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>56000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>65000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>60000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>46000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>45000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>42000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>73000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>35000</v>
       </c>
       <c r="Z22" s="3">
         <v>35000</v>
       </c>
       <c r="AA22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>419000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2240000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>787000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>465000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>930000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>244000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1808000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-923000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5008000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6859000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-427000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-524000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-924000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2329000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-618000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>322000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>428000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>776000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>47000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>483000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-167000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-472000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E24" s="3">
         <v>467000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>148000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>77000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>165000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-408000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-885000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-218000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1075000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1434000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-259000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-121000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-213000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-215000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>448000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-259000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>50000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>63000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>225000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-59000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-41000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>30000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-253000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1996,162 +2044,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1773000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>639000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>388000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>765000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>223000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-705000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3933000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5425000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-850000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-306000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-311000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-709000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1881000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-359000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>272000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>365000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>551000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>106000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>524000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-197000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-219000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1702000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>559000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>228000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>658000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>97000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1501000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-790000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4029000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5375000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-946000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-374000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-444000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-775000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1820000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-412000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>175000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>242000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>407000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>341000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-290000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-366000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2227,8 +2284,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2274,24 +2334,24 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>118000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-84000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-11000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-28000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>76000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2304,8 +2364,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2381,8 +2444,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2458,162 +2524,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2229000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-821000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>535000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>185000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1199000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2546000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3612000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1472000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6038000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9400000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1689000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>453000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1870000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1630000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2006000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>46000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>236000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>18000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>316000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-548000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>235000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1037000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1702000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>559000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>228000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>658000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>97000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1501000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-790000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4029000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5375000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-946000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-374000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-444000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-775000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1938000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-496000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>164000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>214000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>483000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>341000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-290000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-366000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2689,167 +2764,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1702000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>559000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>228000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>658000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>97000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1501000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-790000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4029000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5375000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-946000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-374000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-444000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-775000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1938000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-496000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>164000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>214000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>483000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>341000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-290000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-366000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2877,8 +2961,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2906,85 +2991,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4139000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5109000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5713000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5188000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5255000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5761000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6795000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6179000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8684000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8364000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10315000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4405000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4471000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4734000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5129000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4469000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4777000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6833000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6091000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4814000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6446000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6187000</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3060,85 +3149,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15917000</v>
+      </c>
+      <c r="E43" s="3">
         <v>16424000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16804000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>17278000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17440000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16936000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6887000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6789000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6509000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6663000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7050000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6579000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6591000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6896000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6972000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7104000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7133000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7239000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7253000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7181000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7241000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7352000</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3214,17 +3309,20 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1335000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1747000</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3252,29 +3350,29 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>958000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1110000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1262000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1170000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1263000</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3291,8 +3389,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3368,85 +3469,91 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>94739000</v>
+      </c>
+      <c r="E47" s="3">
         <v>94890000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>99887000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>105306000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102300000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>100895000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>106006000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>109087000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>105778000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>102693000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>96216000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>93340000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>94690000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>86853000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>82880000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81281000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>79209000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>76822000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>79941000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>82706000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>79455000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>77837000</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3468,33 +3575,33 @@
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>691000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>687000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>713000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>726000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>760000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3504,8 +3611,8 @@
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3522,85 +3629,91 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5635000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4721000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4723000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4728000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4734000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4739000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4744000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4737000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4745000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4756000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4760000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4751000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4765000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4776000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4769000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4780000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4791000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4802000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4813000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4824000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4840000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4852000</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3676,8 +3789,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3753,85 +3869,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8244000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7541000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8285000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6995000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6275000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5911000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6839000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6466000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6040000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6064000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7665000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7894000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5787000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6080000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6018000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6745000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6736000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7635000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7313000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8394000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6722000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6984000</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3907,85 +4029,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>245600000</v>
+      </c>
+      <c r="E54" s="3">
         <v>253482000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>277658000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>292262000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>284579000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>285982000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>276832000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>275397000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>262496000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>254110000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>240781000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>249818000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>244646000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>238597000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>232819000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>220797000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>234451000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>231012000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>232294000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>235615000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>230825000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>226564000</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4013,8 +4141,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4042,8 +4171,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4119,162 +4249,171 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7270000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6820000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5992000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6636000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7059000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8017000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9456000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5947000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5038000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4890000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4632000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4608000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4208000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1698000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1640000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2063000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2400000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2350000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2404000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2387000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3784000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3747000</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5316000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5786000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7007000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6264000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5706000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5962000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6802000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7845000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7260000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7447000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8366000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6060000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6068000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6146000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6321000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5032000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4687000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4714000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4411000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4448000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4373000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4491000</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4350,85 +4489,91 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4026000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5698000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5318000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11848000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4772000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4867000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5105000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7321000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5916000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5915000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6336000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6403000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7086000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7144000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7299000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7455000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7306000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7422000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7403000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11530000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7142000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6786000</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4438,8 +4583,8 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -4448,26 +4593,26 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>270000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>322000</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>679000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>724000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4480,8 +4625,8 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4504,8 +4649,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4581,8 +4729,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4658,8 +4809,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4735,85 +4889,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>242246000</v>
+      </c>
+      <c r="E66" s="3">
         <v>247893000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>269704000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>280743000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>272899000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>274250000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>266139000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>259821000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>245196000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>236516000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>220695000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>236362000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>229710000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>223754000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>219676000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>206931000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>222040000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>217674000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>218775000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>222246000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>218667000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>214442000</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4841,8 +5001,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4918,8 +5079,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4995,8 +5159,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5019,13 +5186,13 @@
         <v>1562000</v>
       </c>
       <c r="J70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="K70" s="3">
         <v>1269000</v>
       </c>
       <c r="L70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="M70" s="3">
         <v>775000</v>
@@ -5034,7 +5201,7 @@
         <v>775000</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="P70" s="3">
         <v>0</v>
@@ -5072,8 +5239,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5149,85 +5319,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10839000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10718000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9312000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8880000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8857000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8739000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8758000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10699000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12032000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12995000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>17112000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11744000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12835000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>13293000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13004000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13989000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12031000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12613000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12455000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12225000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>11548000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11558000</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5303,8 +5479,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5380,8 +5559,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5457,85 +5639,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1792000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4027000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6392000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9957000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10118000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10170000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9131000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14307000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16031000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16819000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>19311000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12681000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14936000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14843000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>13143000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13866000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12411000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13338000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13519000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13369000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12158000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12122000</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5611,167 +5799,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1702000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>559000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>228000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>658000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>97000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1501000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-790000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4029000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5375000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-946000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-374000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-444000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-775000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1938000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-496000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>164000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>214000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>483000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>341000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-290000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-366000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5799,85 +5996,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E83" s="3">
         <v>191000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>180000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>161000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>88000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>95000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>153000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>162000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>176000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1330000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>93000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>131000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>433000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>239000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>104000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>-195000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>184000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>164000</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>8</v>
+      <c r="Y83" s="3">
+        <v>0</v>
       </c>
       <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5953,8 +6154,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6030,8 +6234,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6107,8 +6314,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6184,8 +6394,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6261,85 +6474,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-94000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-730000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-402000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>241000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-581000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-14000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-66000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>553000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-570000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>76000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>133000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-425000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-109000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>94000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>281000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-67000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-247000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-23000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>378000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>666000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>72000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-54000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6367,85 +6586,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-83000</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3">
         <v>-27000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-41000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-63000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-14000</v>
       </c>
       <c r="M91" s="3">
         <v>-14000</v>
       </c>
       <c r="N91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-21000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-39000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-39000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-35000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-43000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6521,8 +6744,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6598,85 +6824,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2524000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1577000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-171000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1914000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2484000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4540000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3751000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2585000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>4147000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-70000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-993000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1348000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>459000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6704,8 +6936,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6713,59 +6946,59 @@
         <v>-75000</v>
       </c>
       <c r="E96" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-70000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-72000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-74000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-76000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-74000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-75000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-76000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-77000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-69000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-70000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-74000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-141000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-68000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-69000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-73000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-15000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -6781,8 +7014,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6858,8 +7094,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6935,8 +7174,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7012,235 +7254,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1108000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1437000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2330000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1751000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3994000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4436000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1498000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5285000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>557000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2334000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>992000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4581000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3132000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>838000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-181000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>700000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-264000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1400000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2771000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1376000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>4923000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2630000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>954000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-41000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>22000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>1000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-3000</v>
       </c>
       <c r="S101" s="3">
         <v>-3000</v>
       </c>
       <c r="T101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="U101" s="3">
         <v>-14000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-970000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-604000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>525000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-506000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1126000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>669000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>320000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1992000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5886000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-263000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>265000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>660000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-308000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>742000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1277000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>259000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>533000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-189000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,355 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3366000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3208000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2948000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3113000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3855000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3802000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4144000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3698000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4186000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3312000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3519000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3221000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3365000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3531000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6735000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3344000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3136000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3093000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3012000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3110000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2940000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3123000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6198000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3066000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2586000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1576000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1371000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1617000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1797000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1461000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1492000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1534000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1612000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1441000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1682000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1345000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3431000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1490000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2372000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3028000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1465000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1376000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1021000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1455000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1156000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1139000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1720000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4106000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1734000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>876000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1790000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1837000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1331000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1316000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2394000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2310000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2610000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2086000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2745000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1630000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2174000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-210000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1875000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1159000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3707000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1879000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1760000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2072000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1557000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1954000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1801000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1403000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2092000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1332000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1710000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1042,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1123,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1190,88 +1206,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E14" s="3">
         <v>267000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-10000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>2000</v>
       </c>
       <c r="H14" s="3">
         <v>2000</v>
       </c>
       <c r="I14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="3">
         <v>-5000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>58000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>31000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>38000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>7000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>25800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>27200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>35000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>24300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1350,8 +1372,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1377,168 +1402,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2812000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2806000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2887000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2795000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2628000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2650000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2886000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2547000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2711000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2441000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5710000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2731000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3451000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5276000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2582000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2804000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1640000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2584000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2400000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2101000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2718000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6190000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2963000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1986000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E18" s="3">
         <v>402000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>61000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>13000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1060000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1174000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1494000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>812000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1639000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>601000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1078000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2489000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>634000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>80000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1459000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>762000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>332000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1453000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>428000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>710000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>839000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>405000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>8000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>103000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>600000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1567,151 +1599,155 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1422000</v>
+      </c>
+      <c r="E20" s="3">
         <v>68000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2229000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>821000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-535000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-185000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1199000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2546000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6038000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9400000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-453000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2057000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-46000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-236000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-18000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-316000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>548000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-235000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-641000</v>
+      </c>
+      <c r="E21" s="3">
         <v>686000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2481000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1014000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>686000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1077000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>390000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1581000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-709000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4784000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>8241000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-962000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-242000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-629000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2493000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-748000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>566000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>638000</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1724,251 +1760,263 @@
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E22" s="3">
         <v>51000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>50000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>47000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>60000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>59000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>51000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>74000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>48000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>54000</v>
       </c>
       <c r="P22" s="3">
         <v>54000</v>
       </c>
       <c r="Q22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="R22" s="3">
         <v>113000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>56000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>60000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>65000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>60000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>46000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>45000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>42000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>73000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>35000</v>
       </c>
       <c r="AA22" s="3">
         <v>35000</v>
       </c>
       <c r="AB22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-921000</v>
+      </c>
+      <c r="E23" s="3">
         <v>419000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2240000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>787000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>465000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>930000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>244000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1808000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-923000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5008000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6859000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-427000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-524000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-924000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2329000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-618000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>322000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>428000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>776000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>47000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>483000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-167000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-472000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="E24" s="3">
         <v>92000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>467000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>148000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>77000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>165000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-408000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-885000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-218000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1075000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1434000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-259000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-213000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-215000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>448000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-259000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>50000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>63000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>225000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-59000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-41000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>30000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-253000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2047,168 +2095,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-713000</v>
+      </c>
+      <c r="E26" s="3">
         <v>327000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1773000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>639000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>388000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>765000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>223000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-705000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3933000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5425000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-850000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-306000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-311000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-709000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1881000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-359000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>272000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>365000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>551000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>106000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>524000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-197000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-219000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-815000</v>
+      </c>
+      <c r="E27" s="3">
         <v>259000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1702000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>559000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>228000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>658000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>97000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1501000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-790000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4029000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5375000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-946000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-374000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-444000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-775000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1820000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-412000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>175000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>242000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>407000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>10000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>341000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-290000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-366000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2287,8 +2344,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2379,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2337,24 +2397,24 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>118000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-84000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-11000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-28000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>76000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2367,8 +2427,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2447,8 +2510,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2527,168 +2593,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1422000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-68000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2229000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-821000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>535000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>185000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1199000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2546000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3612000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1472000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6038000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9400000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1689000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>453000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1870000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1630000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2006000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>46000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>236000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>18000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>316000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-548000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>235000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1037000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-815000</v>
+      </c>
+      <c r="E33" s="3">
         <v>259000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1702000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>559000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>228000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>658000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>97000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1501000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-790000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4029000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5375000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-946000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-374000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-444000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-775000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1938000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-496000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>164000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>214000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>483000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>10000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>341000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-290000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-366000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2767,173 +2842,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-815000</v>
+      </c>
+      <c r="E35" s="3">
         <v>259000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1702000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>559000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>228000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>658000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>97000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1501000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-790000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4029000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5375000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-946000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-374000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-444000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-775000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1938000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-496000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>164000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>214000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>483000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>10000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>341000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-290000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-366000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2962,8 +3046,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2992,88 +3077,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4281000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4139000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5109000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5713000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5188000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5255000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5761000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6795000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6179000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8684000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8364000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10315000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4405000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4471000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4734000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5129000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4469000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4777000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6833000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6091000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4814000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6446000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6187000</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3152,88 +3241,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19539000</v>
+      </c>
+      <c r="E43" s="3">
         <v>15917000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16424000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16804000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17278000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17440000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16936000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6887000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6789000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6509000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6663000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7050000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6579000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6591000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6896000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6972000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7104000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7133000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7239000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7253000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7181000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7241000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7352000</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3312,20 +3407,23 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1522000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1335000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1747000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3353,29 +3451,29 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>958000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1110000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1262000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1170000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1263000</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3392,8 +3490,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3472,139 +3573,145 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>93811000</v>
+      </c>
+      <c r="E47" s="3">
         <v>94739000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>94890000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>99887000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>105306000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>102300000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>100895000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>106006000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>109087000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>105778000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>102693000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>96216000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>93340000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>94690000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>86853000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82880000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81281000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>79209000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>76822000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>79941000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>82706000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>79455000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>77837000</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>691000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>687000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>713000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>726000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>760000</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3614,8 +3721,8 @@
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
@@ -3632,88 +3739,94 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5482000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5635000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4721000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4723000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4728000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4734000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4739000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4744000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4737000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4745000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4756000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4760000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4751000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4765000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4776000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4769000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4780000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4791000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4802000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4813000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4824000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4840000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4852000</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3792,8 +3905,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3872,88 +3988,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8720000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8244000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7541000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8285000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6995000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6275000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5911000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6839000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6466000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6040000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6064000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7665000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7894000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5787000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6080000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6018000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6745000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6736000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7635000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7313000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8394000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>6722000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6984000</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4032,88 +4154,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>253468000</v>
+      </c>
+      <c r="E54" s="3">
         <v>245600000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>253482000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>277658000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>292262000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>284579000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>285982000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>276832000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>275397000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>262496000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>254110000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>240781000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>249818000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>244646000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>238597000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>232819000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>220797000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>234451000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>231012000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>232294000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>235615000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>230825000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>226564000</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4142,8 +4270,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4172,8 +4301,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4252,168 +4382,177 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8039000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7270000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6820000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5992000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6636000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7059000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8017000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9456000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5947000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5038000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4890000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4632000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4608000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4208000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1698000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1640000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2063000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2400000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2350000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2404000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2387000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3784000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3747000</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6189000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5316000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5786000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7007000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6264000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5706000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5962000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6802000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7845000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7260000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7447000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8366000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6060000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6068000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6146000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6321000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5032000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4687000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4714000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4411000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4448000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4373000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4491000</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4492,93 +4631,99 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5693000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4026000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5698000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5318000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11848000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4772000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4867000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5105000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7321000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5916000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5915000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6336000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6403000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7086000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7144000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7299000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7455000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7306000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7422000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7403000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11530000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7142000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6786000</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>108000</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>8</v>
@@ -4586,8 +4731,8 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -4596,26 +4741,26 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>270000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>322000</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>679000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>724000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4628,8 +4773,8 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4652,8 +4797,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4732,8 +4880,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4812,8 +4963,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4892,88 +5046,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>251810000</v>
+      </c>
+      <c r="E66" s="3">
         <v>242246000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>247893000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>269704000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>280743000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>272899000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>274250000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>266139000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>259821000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>245196000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>236516000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>220695000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>236362000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>229710000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>223754000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>219676000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>206931000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>222040000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>217674000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>218775000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>222246000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>218667000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>214442000</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5002,8 +5162,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5082,8 +5243,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5162,8 +5326,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5189,13 +5356,13 @@
         <v>1562000</v>
       </c>
       <c r="K70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="L70" s="3">
         <v>1269000</v>
       </c>
       <c r="M70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="N70" s="3">
         <v>775000</v>
@@ -5204,7 +5371,7 @@
         <v>775000</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -5242,8 +5409,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5322,88 +5492,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9924000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10839000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10718000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9312000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8880000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8857000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8739000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8758000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10699000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12032000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12995000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>17112000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11744000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12835000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>13293000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13004000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13989000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12031000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12613000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12455000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12225000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>11548000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11558000</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5482,8 +5658,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5562,8 +5741,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5642,88 +5824,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1792000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4027000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6392000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9957000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10118000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10170000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9131000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14307000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16031000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16819000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19311000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12681000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14936000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14843000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13143000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13866000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12411000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13338000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13519000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13369000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12158000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12122000</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5802,173 +5990,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-815000</v>
+      </c>
+      <c r="E81" s="3">
         <v>259000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1702000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>559000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>228000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>658000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>97000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1501000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-790000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4029000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5375000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-946000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-374000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-444000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-775000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1938000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-496000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>164000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>214000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>483000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>10000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>341000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-290000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-366000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5997,88 +6194,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E83" s="3">
         <v>216000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>191000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>180000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>161000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>88000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>95000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>153000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>162000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>176000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1330000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>93000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>131000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>433000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>239000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>104000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>-195000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>184000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>164000</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>8</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6157,8 +6358,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6237,8 +6441,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6317,8 +6524,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6397,8 +6607,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6477,88 +6690,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E89" s="3">
         <v>79000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-94000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-730000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-402000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>241000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-581000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-14000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-66000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>553000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-570000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>76000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>133000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-425000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-109000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>94000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>281000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-67000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-247000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-23000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>378000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>666000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>72000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-54000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6587,88 +6806,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-83000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3">
         <v>-27000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-41000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-14000</v>
       </c>
       <c r="N91" s="3">
         <v>-14000</v>
       </c>
       <c r="O91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-21000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-39000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-39000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-35000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-43000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-19000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6747,8 +6970,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6827,88 +7053,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3215000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2524000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1577000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-171000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1914000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2484000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4540000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3751000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2585000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4147000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-70000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-993000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1348000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>459000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6937,71 +7169,72 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-75000</v>
+        <v>-74000</v>
       </c>
       <c r="E96" s="3">
         <v>-75000</v>
       </c>
       <c r="F96" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-70000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-72000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-74000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-76000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-74000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-75000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-76000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-77000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-69000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-70000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-141000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-68000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-69000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-73000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-15000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
@@ -7017,8 +7250,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7097,8 +7333,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7177,8 +7416,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7257,244 +7499,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3588000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1513000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1108000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1437000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2330000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1751000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3994000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4436000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1498000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5285000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>557000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2334000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>992000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4581000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3132000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>838000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-181000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>700000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-264000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1400000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2771000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1376000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4923000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2630000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>954000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-38000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-41000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>16000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>1000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-3000</v>
       </c>
       <c r="T101" s="3">
         <v>-3000</v>
       </c>
       <c r="U101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="V101" s="3">
         <v>-14000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>11000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>8000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-970000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-604000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>525000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-506000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1126000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>669000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>320000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1992000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5886000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-263000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>265000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>660000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-308000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>742000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1277000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>259000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>533000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-189000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,367 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3366000</v>
+        <v>3178000</v>
       </c>
       <c r="E8" s="3">
-        <v>3208000</v>
+        <v>3318000</v>
       </c>
       <c r="F8" s="3">
-        <v>2948000</v>
+        <v>2941000</v>
       </c>
       <c r="G8" s="3">
-        <v>3113000</v>
+        <v>2939000</v>
       </c>
       <c r="H8" s="3">
-        <v>3855000</v>
+        <v>3454000</v>
       </c>
       <c r="I8" s="3">
-        <v>3802000</v>
+        <v>3853000</v>
       </c>
       <c r="J8" s="3">
+        <v>3800000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4144000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3698000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4186000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3312000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3519000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3221000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3365000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3531000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6735000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3344000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3136000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3093000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3012000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3110000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2940000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3123000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6198000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3066000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2586000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1577000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1576000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1371000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1617000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1797000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1461000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1492000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1534000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1612000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1441000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1682000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1345000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3431000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1490000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2372000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3028000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1465000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1376000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1021000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1455000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1156000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1139000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1720000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4106000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1734000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>876000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1790000</v>
+        <v>1601000</v>
       </c>
       <c r="E10" s="3">
-        <v>1837000</v>
+        <v>1742000</v>
       </c>
       <c r="F10" s="3">
-        <v>1331000</v>
+        <v>1570000</v>
       </c>
       <c r="G10" s="3">
-        <v>1316000</v>
+        <v>1322000</v>
       </c>
       <c r="H10" s="3">
-        <v>2394000</v>
+        <v>1895000</v>
       </c>
       <c r="I10" s="3">
-        <v>2310000</v>
+        <v>2392000</v>
       </c>
       <c r="J10" s="3">
+        <v>2308000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2610000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2086000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2745000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1630000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2174000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-210000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1875000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1159000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3707000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1879000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1760000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2072000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1557000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1954000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1801000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1403000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2092000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1332000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1710000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,8 +1055,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1209,91 +1225,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>48000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>267000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-5000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>58000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>31000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>38000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>7000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>25800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>27200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>35000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>24300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1375,8 +1397,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1403,174 +1428,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2812000</v>
+        <v>2735000</v>
       </c>
       <c r="E17" s="3">
-        <v>2806000</v>
+        <v>2764000</v>
       </c>
       <c r="F17" s="3">
-        <v>2887000</v>
+        <v>2539000</v>
       </c>
       <c r="G17" s="3">
-        <v>3100000</v>
+        <v>2878000</v>
       </c>
       <c r="H17" s="3">
-        <v>2795000</v>
+        <v>2832000</v>
       </c>
       <c r="I17" s="3">
-        <v>2628000</v>
+        <v>2793000</v>
       </c>
       <c r="J17" s="3">
+        <v>2626000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2650000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2886000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2547000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2711000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2441000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5710000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2731000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3451000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5276000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2582000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2804000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1640000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2584000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2400000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2101000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2718000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6190000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2963000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1986000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>443000</v>
+      </c>
+      <c r="E18" s="3">
         <v>554000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>402000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>61000</v>
       </c>
-      <c r="G18" s="3">
-        <v>13000</v>
-      </c>
       <c r="H18" s="3">
+        <v>622000</v>
+      </c>
+      <c r="I18" s="3">
         <v>1060000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1174000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1494000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>812000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1639000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>601000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1078000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2489000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>634000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>80000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1459000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>762000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>332000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1453000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>428000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>710000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>839000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>405000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>8000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>103000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>600000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1600,157 +1632,161 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-841000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1422000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>68000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2229000</v>
       </c>
-      <c r="G20" s="3">
-        <v>821000</v>
-      </c>
       <c r="H20" s="3">
+        <v>159000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-535000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-185000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1199000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2546000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6038000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9400000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-453000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2057000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-46000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-236000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-316000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>548000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-235000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-641000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>686000</v>
       </c>
-      <c r="F21" s="3">
-        <v>2481000</v>
-      </c>
       <c r="G21" s="3">
-        <v>1014000</v>
+        <v>2519000</v>
       </c>
       <c r="H21" s="3">
+        <v>923000</v>
+      </c>
+      <c r="I21" s="3">
         <v>686000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1077000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>390000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1581000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-709000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4784000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8241000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-962000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-242000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>22000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-629000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2493000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-748000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>566000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>638000</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1763,260 +1799,272 @@
       <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E22" s="3">
         <v>53000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>51000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>50000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>47000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>60000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>59000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>51000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>74000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>54000</v>
       </c>
       <c r="Q22" s="3">
         <v>54000</v>
       </c>
       <c r="R22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="S22" s="3">
         <v>113000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>56000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>60000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>65000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>60000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>46000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>45000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>42000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>73000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>35000</v>
       </c>
       <c r="AB22" s="3">
         <v>35000</v>
       </c>
       <c r="AC22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="AD22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-921000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>419000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2240000</v>
       </c>
-      <c r="G23" s="3">
-        <v>787000</v>
-      </c>
       <c r="H23" s="3">
+        <v>734000</v>
+      </c>
+      <c r="I23" s="3">
         <v>465000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>930000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>244000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1808000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-923000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5008000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6859000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-427000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-524000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-924000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2329000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-618000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>322000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>428000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>776000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>47000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>483000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-167000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-472000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-725000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-208000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>92000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>467000</v>
       </c>
-      <c r="G24" s="3">
-        <v>148000</v>
-      </c>
       <c r="H24" s="3">
+        <v>137000</v>
+      </c>
+      <c r="I24" s="3">
         <v>77000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>165000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>21000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-408000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-885000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-218000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1075000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1434000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-259000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-121000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-213000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-215000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>448000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-259000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>50000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>63000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>225000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-59000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-41000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>30000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-253000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2098,174 +2146,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-713000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>327000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1773000</v>
       </c>
-      <c r="G26" s="3">
-        <v>639000</v>
-      </c>
       <c r="H26" s="3">
+        <v>597000</v>
+      </c>
+      <c r="I26" s="3">
         <v>388000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>765000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>223000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1400000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-705000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3933000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5425000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-850000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-306000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-311000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-709000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1881000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-359000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>272000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>365000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>551000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>106000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>524000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-197000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-219000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-815000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>259000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1702000</v>
       </c>
-      <c r="G27" s="3">
-        <v>559000</v>
-      </c>
       <c r="H27" s="3">
+        <v>516000</v>
+      </c>
+      <c r="I27" s="3">
         <v>228000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>658000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>97000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1501000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-790000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4029000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5375000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-946000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-374000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-444000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-775000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1820000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-412000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>175000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>242000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>407000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>10000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>341000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-290000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-366000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2347,8 +2404,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2382,8 +2442,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2400,24 +2460,24 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>118000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-84000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-11000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-28000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>76000</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,8 +2490,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2513,8 +2576,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2596,174 +2662,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1422000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-68000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2229000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-821000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="I32" s="3">
         <v>535000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>185000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1199000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2546000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3612000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1472000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6038000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9400000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1689000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>453000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1870000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1630000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2006000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>46000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>236000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>18000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>316000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-548000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>235000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1037000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-815000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>259000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1702000</v>
       </c>
-      <c r="G33" s="3">
-        <v>559000</v>
-      </c>
       <c r="H33" s="3">
+        <v>516000</v>
+      </c>
+      <c r="I33" s="3">
         <v>228000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>658000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>97000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1501000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-790000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4029000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5375000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-946000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-374000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-444000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-775000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1938000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-496000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>164000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>214000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>483000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>10000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>341000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-290000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-366000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2845,179 +2920,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-815000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>259000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1702000</v>
       </c>
-      <c r="G35" s="3">
-        <v>559000</v>
-      </c>
       <c r="H35" s="3">
+        <v>516000</v>
+      </c>
+      <c r="I35" s="3">
         <v>228000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>658000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>97000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1501000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-790000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4029000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5375000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-946000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-374000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-444000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-775000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1938000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-496000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>164000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>214000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>483000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>10000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>341000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-290000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-366000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3047,8 +3131,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3078,91 +3163,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5018000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4281000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4139000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5109000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5713000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5188000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5255000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5761000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6795000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6179000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8684000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8364000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10315000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4405000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4471000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4734000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5129000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4469000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4777000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6833000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6091000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4814000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6446000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6187000</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3244,91 +3333,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19539000</v>
+        <v>10656000</v>
       </c>
       <c r="E43" s="3">
+        <v>10809000</v>
+      </c>
+      <c r="F43" s="3">
         <v>15917000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16424000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16804000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17278000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17440000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16936000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6887000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6789000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6509000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6663000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7050000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6579000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6591000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6896000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6972000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7104000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7133000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7239000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7253000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7181000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7241000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7352000</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3410,23 +3505,26 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1522000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1335000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1747000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3454,29 +3552,29 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>958000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1110000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1262000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1170000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1263000</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3493,8 +3591,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3576,91 +3677,97 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>93811000</v>
+        <v>97517000</v>
       </c>
       <c r="E47" s="3">
+        <v>93878000</v>
+      </c>
+      <c r="F47" s="3">
         <v>94739000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>94890000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>99887000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>105306000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>102300000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>100895000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>106006000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>109087000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>105778000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>102693000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>96216000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>93340000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>94690000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>86853000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82880000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81281000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>79209000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>76822000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>79941000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>82706000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>79455000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>77837000</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3685,36 +3792,36 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>691000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>687000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>713000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>726000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>760000</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3724,8 +3831,8 @@
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X48" s="3">
-        <v>0</v>
+      <c r="X48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
@@ -3742,91 +3849,97 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5478000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5482000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5635000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4721000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4723000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4728000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4734000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4739000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4744000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4737000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4745000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4756000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4760000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4751000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4765000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4776000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4769000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4780000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4791000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4802000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4813000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4824000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4840000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4852000</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3908,8 +4021,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3991,91 +4107,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8720000</v>
+        <v>7090000</v>
       </c>
       <c r="E52" s="3">
+        <v>6931000</v>
+      </c>
+      <c r="F52" s="3">
         <v>8244000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7541000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>8285000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6995000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6275000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5911000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6839000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6466000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6040000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6064000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7665000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7894000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5787000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6080000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6018000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6745000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6736000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7635000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7313000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8394000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>6722000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6984000</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4157,91 +4279,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>253468000</v>
+        <v>261500000</v>
       </c>
       <c r="E54" s="3">
+        <v>252702000</v>
+      </c>
+      <c r="F54" s="3">
         <v>245600000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>253482000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>277658000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>292262000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>284579000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>285982000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>276832000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>275397000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>262496000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>254110000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>240781000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>249818000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>244646000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>238597000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>232819000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>220797000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>234451000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>231012000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>232294000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>235615000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>230825000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>226564000</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4271,8 +4399,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4302,8 +4431,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4385,174 +4515,183 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7915000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8039000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7270000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6820000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5992000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6636000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7059000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8017000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9456000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5947000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5038000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4890000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4632000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4608000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4208000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1698000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1640000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2063000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2400000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2350000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2404000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2387000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3784000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3747000</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4911000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6189000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5316000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5786000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7007000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6264000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5706000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5962000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6802000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7845000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7260000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7447000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8366000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6060000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6068000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6146000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6321000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5032000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4687000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4714000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4411000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4448000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4373000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4491000</v>
       </c>
-      <c r="AA59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4634,108 +4773,114 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5693000</v>
+        <v>4511000</v>
       </c>
       <c r="E61" s="3">
+        <v>4014000</v>
+      </c>
+      <c r="F61" s="3">
         <v>4026000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5698000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5318000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11848000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4772000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4867000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5105000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7321000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5916000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5915000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6336000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6403000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7086000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7144000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7299000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7455000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7306000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7422000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7403000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>11530000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7142000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6786000</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E62" s="3">
         <v>108000</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4744,26 +4889,26 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>270000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>322000</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>679000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>724000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4776,8 +4921,8 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4800,8 +4945,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4883,8 +5031,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4966,8 +5117,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5049,91 +5203,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>251810000</v>
+        <v>257746000</v>
       </c>
       <c r="E66" s="3">
+        <v>251301000</v>
+      </c>
+      <c r="F66" s="3">
         <v>242246000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>247893000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>269704000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>280743000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>272899000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>274250000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>266139000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>259821000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>245196000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>236516000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>220695000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>236362000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>229710000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>223754000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>219676000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>206931000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>222040000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>217674000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>218775000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>222246000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>218667000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>214442000</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5163,8 +5323,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5246,8 +5407,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5329,8 +5493,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5359,13 +5526,13 @@
         <v>1562000</v>
       </c>
       <c r="L70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="M70" s="3">
         <v>1269000</v>
       </c>
       <c r="N70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="O70" s="3">
         <v>775000</v>
@@ -5374,7 +5541,7 @@
         <v>775000</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -5412,8 +5579,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5495,91 +5665,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9924000</v>
+        <v>9806000</v>
       </c>
       <c r="E72" s="3">
+        <v>9825000</v>
+      </c>
+      <c r="F72" s="3">
         <v>10839000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10718000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9312000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8880000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8857000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8739000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8758000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10699000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12032000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12995000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>17112000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11744000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12835000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>13293000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13004000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13989000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12031000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12613000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12455000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12225000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>11548000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11558000</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5661,8 +5837,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5744,8 +5923,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5827,91 +6009,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>96000</v>
+        <v>2192000</v>
       </c>
       <c r="E76" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1792000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4027000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6392000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9957000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10118000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10170000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9131000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14307000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16031000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16819000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19311000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12681000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14936000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14843000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13143000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13866000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12411000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13338000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13519000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13369000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12158000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12122000</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5993,179 +6181,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-815000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>259000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1702000</v>
       </c>
-      <c r="G81" s="3">
-        <v>559000</v>
-      </c>
       <c r="H81" s="3">
+        <v>516000</v>
+      </c>
+      <c r="I81" s="3">
         <v>228000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>658000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>97000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1501000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-790000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4029000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5375000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-946000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-374000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-444000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-775000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1938000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-496000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>164000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>214000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>483000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>10000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>341000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-290000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-366000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6195,91 +6392,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E83" s="3">
         <v>227000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>216000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>191000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>180000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>161000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>88000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>95000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>153000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>162000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>176000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1330000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>93000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>131000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>433000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>239000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>104000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>-195000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>184000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>164000</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>8</v>
+      <c r="AA83" s="3">
+        <v>0</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6361,8 +6562,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6444,8 +6648,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6527,8 +6734,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6610,8 +6820,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6693,91 +6906,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-587000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-106000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>79000</v>
       </c>
-      <c r="F89" s="3">
-        <v>-94000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-730000</v>
+        <v>-216000</v>
       </c>
       <c r="H89" s="3">
+        <v>-608000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-402000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>241000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-581000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-14000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-66000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>553000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-570000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>76000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>133000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-425000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-109000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>94000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>281000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-67000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-247000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>378000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>666000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>72000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-54000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6807,22 +7026,23 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-65000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-83000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>-19000</v>
       </c>
       <c r="H91" s="3">
         <v>-27000</v>
@@ -6834,64 +7054,67 @@
         <v>-29000</v>
       </c>
       <c r="K91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-23000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-14000</v>
       </c>
       <c r="O91" s="3">
         <v>-14000</v>
       </c>
       <c r="P91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-33000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-39000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-39000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-38000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-35000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-43000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-19000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6973,8 +7196,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7056,91 +7282,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1430000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3215000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2524000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1577000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-171000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1914000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2484000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4540000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3751000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2585000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4147000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-70000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-993000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1348000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>459000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7170,74 +7402,75 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-74000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-75000</v>
       </c>
       <c r="F96" s="3">
         <v>-75000</v>
       </c>
       <c r="G96" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-70000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-72000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-74000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-76000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-74000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-75000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-76000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-77000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-69000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-74000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-141000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-68000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-69000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-73000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-15000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
@@ -7253,8 +7486,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7336,8 +7572,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7419,8 +7658,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7502,253 +7744,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2749000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3588000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1513000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1108000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1437000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2330000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1751000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3994000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4436000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1498000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5285000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>557000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2334000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>992000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4581000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3132000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>838000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-181000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>700000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-264000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1400000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2771000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1376000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4923000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2630000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>954000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="3">
         <v>34000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-38000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-41000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-13000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>1000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-3000</v>
       </c>
       <c r="U101" s="3">
         <v>-3000</v>
       </c>
       <c r="V101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="W101" s="3">
         <v>-14000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>11000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>8000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-17000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>742000</v>
+      </c>
+      <c r="E102" s="3">
         <v>301000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-970000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-604000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>525000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-506000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1126000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>669000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>320000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1992000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5886000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-263000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>265000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>660000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-308000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>742000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1277000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>259000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>533000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-189000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,367 +665,379 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4269000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3178000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3318000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2941000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2939000</v>
-      </c>
       <c r="H8" s="3">
+        <v>2018000</v>
+      </c>
+      <c r="I8" s="3">
         <v>3454000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3853000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3800000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4144000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3698000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4186000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3312000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3519000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3221000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3365000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3531000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6735000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3344000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3136000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3093000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3012000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3110000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2940000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3123000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6198000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3066000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2586000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1571000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1577000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1576000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1371000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1617000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1305000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1559000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1461000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1492000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1534000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1612000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1441000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1682000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1345000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3431000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1490000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2372000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3028000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1465000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1376000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1021000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1455000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1156000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1139000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1720000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4106000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1734000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>876000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2698000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1601000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1742000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1570000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1322000</v>
-      </c>
       <c r="H10" s="3">
+        <v>713000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1895000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2392000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2308000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2610000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2086000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2745000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1630000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2174000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-210000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1875000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1159000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3707000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1879000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1760000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2072000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1557000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1954000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1801000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1403000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2092000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1332000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1710000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,8 +1068,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1155,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,8 +1244,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1255,67 +1274,70 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-5000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>58000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>31000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>38000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>7000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>25800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>27200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>35000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>24300</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1400,8 +1422,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1429,180 +1454,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2758000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2735000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2764000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2539000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2878000</v>
-      </c>
       <c r="H17" s="3">
+        <v>2551000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2832000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2793000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2626000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2650000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2886000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2547000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2711000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2441000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5710000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2731000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3451000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5276000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2582000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2804000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1640000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2584000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2400000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2101000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2718000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6190000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2963000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1986000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1511000</v>
+      </c>
+      <c r="E18" s="3">
         <v>443000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>554000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>402000</v>
       </c>
-      <c r="G18" s="3">
-        <v>61000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-533000</v>
+      </c>
+      <c r="I18" s="3">
         <v>622000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1060000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1174000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1494000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>812000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1639000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>601000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1078000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2489000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>634000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>80000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1459000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>762000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>332000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1453000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>428000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>710000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>839000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>405000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>8000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>103000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>600000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1633,163 +1665,167 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-917000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-841000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1422000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>68000</v>
       </c>
-      <c r="G20" s="3">
-        <v>2229000</v>
-      </c>
       <c r="H20" s="3">
+        <v>1858000</v>
+      </c>
+      <c r="I20" s="3">
         <v>159000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-535000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-185000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1199000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2546000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6038000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>9400000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-453000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2057000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-46000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-236000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-316000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>548000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-235000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-174000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-641000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>879000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1361000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>923000</v>
+      </c>
+      <c r="J21" s="3">
         <v>686000</v>
       </c>
-      <c r="G21" s="3">
-        <v>2519000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>923000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>686000</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1077000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>390000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1581000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-709000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4784000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8241000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-962000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-242000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>22000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-629000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2493000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-748000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>566000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>638000</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1802,269 +1838,281 @@
       <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E22" s="3">
         <v>61000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>53000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>51000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>50000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>47000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>59000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>74000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>54000</v>
       </c>
       <c r="R22" s="3">
         <v>54000</v>
       </c>
       <c r="S22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="T22" s="3">
         <v>113000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>56000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>60000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>65000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>60000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>46000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>45000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>42000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>73000</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>35000</v>
       </c>
       <c r="AC22" s="3">
         <v>35000</v>
       </c>
       <c r="AD22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="AE22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-459000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-921000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>419000</v>
       </c>
-      <c r="G23" s="3">
-        <v>2240000</v>
-      </c>
       <c r="H23" s="3">
+        <v>1275000</v>
+      </c>
+      <c r="I23" s="3">
         <v>734000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>465000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>930000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>244000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1808000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-923000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5008000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6859000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-427000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-524000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-924000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2329000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-618000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>322000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>428000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>776000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>47000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>483000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-167000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-472000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-292000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-725000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-208000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>92000</v>
       </c>
-      <c r="G24" s="3">
-        <v>467000</v>
-      </c>
       <c r="H24" s="3">
+        <v>264000</v>
+      </c>
+      <c r="I24" s="3">
         <v>137000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>77000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>165000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-408000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-885000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-218000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1075000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1434000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-259000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-121000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-213000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-215000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>448000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-259000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>50000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>63000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>225000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-59000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-41000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>30000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-253000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2149,180 +2197,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>831000</v>
+      </c>
+      <c r="E26" s="3">
         <v>266000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-713000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>327000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1773000</v>
-      </c>
       <c r="H26" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="I26" s="3">
         <v>597000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>388000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>765000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>223000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1400000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-705000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3933000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5425000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-850000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-306000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-311000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-709000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1881000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-359000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>272000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>365000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>551000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>106000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>524000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-197000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-219000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E27" s="3">
         <v>163000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-815000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>259000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1702000</v>
-      </c>
       <c r="H27" s="3">
+        <v>941000</v>
+      </c>
+      <c r="I27" s="3">
         <v>516000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>228000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>658000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>97000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1501000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-790000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4029000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5375000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-946000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-374000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-444000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-775000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1820000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-412000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>175000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>242000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>407000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>10000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>341000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-290000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-366000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2407,8 +2464,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2445,8 +2505,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2463,24 +2523,24 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>118000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-84000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-11000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-28000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>76000</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2493,8 +2553,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2579,8 +2642,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2665,180 +2731,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>917000</v>
+      </c>
+      <c r="E32" s="3">
         <v>841000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1422000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-68000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-2229000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1858000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-159000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>535000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>185000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1199000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2546000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3612000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1472000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6038000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-9400000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1689000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>453000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1870000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1630000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2006000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>46000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>236000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>18000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>316000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-548000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>235000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1037000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E33" s="3">
         <v>163000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-815000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>259000</v>
       </c>
-      <c r="G33" s="3">
-        <v>1702000</v>
-      </c>
       <c r="H33" s="3">
+        <v>941000</v>
+      </c>
+      <c r="I33" s="3">
         <v>516000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>228000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>658000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>97000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1501000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-790000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4029000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5375000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-946000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-374000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-444000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-775000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1938000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-496000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>164000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>214000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>483000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>341000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-290000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-366000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2923,185 +2998,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E35" s="3">
         <v>163000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-815000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>259000</v>
       </c>
-      <c r="G35" s="3">
-        <v>1702000</v>
-      </c>
       <c r="H35" s="3">
+        <v>941000</v>
+      </c>
+      <c r="I35" s="3">
         <v>516000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>228000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>658000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>97000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1501000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-790000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4029000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5375000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-946000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-374000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-444000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-775000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1938000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-496000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>164000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>214000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>483000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>341000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-290000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-366000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3132,8 +3216,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3164,94 +3249,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7693000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5018000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4281000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4139000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5109000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5713000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5188000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5255000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5761000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6795000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6179000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8684000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8364000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10315000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4405000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4471000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4734000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5129000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4469000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4777000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6833000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6091000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4814000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6446000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6187000</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3336,94 +3425,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10448000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10656000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10809000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15917000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16424000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16804000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17278000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17440000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16936000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6887000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6789000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6509000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6663000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7050000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6579000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6591000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6896000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6972000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>7104000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7133000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7239000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7253000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7181000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7241000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7352000</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3508,28 +3603,31 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>879000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1055000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1522000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1335000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1747000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+      <c r="I45" s="3">
+        <v>1693000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -3555,29 +3653,29 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>958000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1110000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1262000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1170000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1263000</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3594,8 +3692,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3680,94 +3781,100 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>99448000</v>
+      </c>
+      <c r="E47" s="3">
         <v>97517000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>93878000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>94739000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>94890000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>99887000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>105306000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>102300000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100895000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>106006000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>109087000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>105778000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>102693000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>96216000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>93340000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>94690000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>86853000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82880000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81281000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>79209000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>76822000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>79941000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>82706000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>79455000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>77837000</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3795,36 +3902,36 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>691000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>687000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>713000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>726000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>760000</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3834,8 +3941,8 @@
       <c r="X48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z48" s="3">
         <v>0</v>
@@ -3852,94 +3959,100 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5463000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5478000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5482000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5635000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4721000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4723000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4728000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4734000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4739000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4744000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4737000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4745000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4756000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4760000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4751000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4765000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4776000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4769000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4780000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4791000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4802000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4813000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4824000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4840000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4852000</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4024,8 +4137,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4110,94 +4226,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7078000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7090000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6931000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8244000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7541000</v>
       </c>
-      <c r="H52" s="3">
-        <v>8285000</v>
-      </c>
       <c r="I52" s="3">
+        <v>6592000</v>
+      </c>
+      <c r="J52" s="3">
         <v>6995000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6275000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5911000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6839000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6466000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6040000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6064000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7665000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7894000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5787000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6080000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6018000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6745000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6736000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7635000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7313000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8394000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>6722000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>6984000</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4282,94 +4404,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>269006000</v>
+      </c>
+      <c r="E54" s="3">
         <v>261500000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>252702000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>245600000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>253482000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>277658000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>292262000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>284579000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>285982000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>276832000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>275397000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>262496000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>254110000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>240781000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>249818000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>244646000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>238597000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>232819000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>220797000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>234451000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>231012000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>232294000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>235615000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>230825000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>226564000</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4400,8 +4528,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4432,8 +4561,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4518,180 +4648,189 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8171000</v>
+      </c>
+      <c r="E58" s="3">
         <v>7915000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8039000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7270000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6820000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5992000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6636000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7059000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8017000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9456000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5947000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5038000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4890000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4632000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4608000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4208000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1698000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1640000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2063000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2400000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2350000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2404000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2387000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3784000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3747000</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5452000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4911000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6189000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5316000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5786000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7007000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6264000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5706000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5962000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6802000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7845000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7260000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7447000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8366000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6060000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6068000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6146000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6321000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5032000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4687000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4714000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4411000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4448000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4373000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4491000</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4776,114 +4915,120 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4500000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4511000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4014000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4026000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5698000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5318000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>11848000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4772000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4867000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5105000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7321000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5916000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5915000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6336000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6403000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7086000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7144000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7299000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7455000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7306000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7422000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7403000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11530000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7142000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>6786000</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E62" s="3">
         <v>158000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>108000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4892,26 +5037,26 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>270000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>322000</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>679000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>724000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4924,8 +5069,8 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4948,8 +5093,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5034,8 +5182,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5120,8 +5271,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5206,94 +5360,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>265453000</v>
+      </c>
+      <c r="E66" s="3">
         <v>257746000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>251301000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>242246000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>247893000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>269704000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>280743000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>272899000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>274250000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>266139000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>259821000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>245196000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>236516000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>220695000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>236362000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>229710000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>223754000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>219676000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>206931000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>222040000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>217674000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>218775000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>222246000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>218667000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>214442000</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5324,8 +5484,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5410,8 +5571,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5496,8 +5660,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5529,13 +5696,13 @@
         <v>1562000</v>
       </c>
       <c r="M70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="N70" s="3">
         <v>1269000</v>
       </c>
       <c r="O70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="P70" s="3">
         <v>775000</v>
@@ -5544,7 +5711,7 @@
         <v>775000</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="S70" s="3">
         <v>0</v>
@@ -5582,8 +5749,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5668,94 +5838,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10325000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9806000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9825000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10839000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10718000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9312000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8880000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8857000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8739000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8758000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10699000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12032000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12995000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>17112000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11744000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12835000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>13293000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13004000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13989000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>12031000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12613000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12455000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>12225000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>11548000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11558000</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5840,8 +6016,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5926,8 +6105,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6012,94 +6194,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1991000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2192000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-161000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1792000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4027000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6392000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9957000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10118000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10170000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9131000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14307000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16031000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16819000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19311000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12681000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14936000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14843000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13143000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13866000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12411000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13338000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13519000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13369000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12158000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12122000</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AD76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6184,185 +6372,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E81" s="3">
         <v>163000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-815000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>259000</v>
       </c>
-      <c r="G81" s="3">
-        <v>1702000</v>
-      </c>
       <c r="H81" s="3">
+        <v>941000</v>
+      </c>
+      <c r="I81" s="3">
         <v>516000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>228000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>658000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>97000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1501000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-790000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4029000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5375000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-946000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-374000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-444000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-775000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1938000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-496000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>164000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>214000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>483000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>341000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-290000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-366000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6393,94 +6590,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E83" s="3">
         <v>224000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>227000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>216000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>191000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>180000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>161000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>88000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>95000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>153000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>162000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>176000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1330000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>93000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>131000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>433000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>239000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>104000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>-195000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>184000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>164000</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>8</v>
+      <c r="AB83" s="3">
+        <v>0</v>
       </c>
       <c r="AC83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AD83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6565,8 +6766,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6651,8 +6855,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6737,8 +6944,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6823,8 +7033,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6909,94 +7122,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-587000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-106000</v>
       </c>
-      <c r="F89" s="3">
-        <v>79000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-216000</v>
+        <v>-205000</v>
       </c>
       <c r="H89" s="3">
+        <v>68000</v>
+      </c>
+      <c r="I89" s="3">
         <v>-608000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-402000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>241000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-581000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-66000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>553000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-570000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>76000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>133000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-425000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-109000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>94000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>281000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-67000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-247000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-23000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>378000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>666000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>72000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-54000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7027,94 +7246,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-65000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-83000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-41000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-29000</v>
       </c>
       <c r="K91" s="3">
         <v>-29000</v>
       </c>
       <c r="L91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-23000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-14000</v>
       </c>
       <c r="P91" s="3">
         <v>-14000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-21000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-33000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-39000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-39000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-38000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-22000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-35000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-24000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-43000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-19000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7199,8 +7422,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7285,94 +7511,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1087000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1430000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3215000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2524000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1577000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-171000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1914000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2484000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4540000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3751000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2585000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>4147000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-70000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-993000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1348000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>459000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7403,77 +7635,78 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-72000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-74000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-75000</v>
       </c>
       <c r="G96" s="3">
         <v>-75000</v>
       </c>
       <c r="H96" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-70000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-72000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-74000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-76000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-74000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-75000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-76000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-77000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-70000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-74000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-141000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-68000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-69000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-73000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
@@ -7489,8 +7722,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7575,8 +7811,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7661,8 +7900,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7747,262 +7989,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3394000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2749000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3588000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1513000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1108000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1437000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2330000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1751000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3994000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4436000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1498000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5285000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>557000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2334000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>992000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4581000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3132000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>838000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-181000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-264000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1400000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2771000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1376000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>4923000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>2630000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>954000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>34000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-38000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-41000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>16000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>1000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-3000</v>
       </c>
       <c r="V101" s="3">
         <v>-3000</v>
       </c>
       <c r="W101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="X101" s="3">
         <v>-14000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>6000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>11000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>8000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-17000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2674000</v>
+      </c>
+      <c r="E102" s="3">
         <v>742000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>301000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-970000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-604000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>525000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-506000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1126000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>669000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>320000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1992000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5886000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-263000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>265000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>660000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-308000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>742000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1277000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>259000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>533000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-189000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-593000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EQH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>EQH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,379 +665,391 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3826000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4269000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3178000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3318000</v>
       </c>
-      <c r="G8" s="3">
-        <v>2941000</v>
-      </c>
       <c r="H8" s="3">
+        <v>3284000</v>
+      </c>
+      <c r="I8" s="3">
         <v>2018000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3454000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3853000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3800000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4144000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3698000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4186000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3312000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3519000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3221000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3365000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3531000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6735000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3344000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3136000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3093000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3012000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3110000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2940000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3123000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6198000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3066000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2586000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2919000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1703000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1571000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1577000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1576000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1371000</v>
-      </c>
       <c r="H9" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="I9" s="3">
         <v>1305000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1559000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1461000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1492000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1534000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1612000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1441000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1682000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1345000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3431000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1490000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2372000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3028000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1465000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1376000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1021000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1455000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1156000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1139000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1720000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4106000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1734000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>876000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1381000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2123000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2698000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1601000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1742000</v>
       </c>
-      <c r="G10" s="3">
-        <v>1570000</v>
-      </c>
       <c r="H10" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="I10" s="3">
         <v>713000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1895000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2392000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2308000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2610000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2086000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2745000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1630000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2174000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-210000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1875000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1159000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3707000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1879000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1760000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2072000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1557000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1954000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1801000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1403000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2092000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1332000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1710000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1538000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,8 +1081,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1158,8 +1171,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,8 +1263,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1277,67 +1296,70 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-5000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>58000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>31000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>38000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>7000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>25800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>27200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>35000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>24300</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>11700</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1425,8 +1447,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1455,186 +1480,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2911000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2758000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2735000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2764000</v>
       </c>
-      <c r="G17" s="3">
-        <v>2539000</v>
-      </c>
       <c r="H17" s="3">
+        <v>2607000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2551000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2832000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2793000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2626000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2650000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2886000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2547000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2711000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2441000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5710000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2731000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3451000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5276000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2582000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2804000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1640000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2584000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2400000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2101000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2718000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6190000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2963000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1986000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2249000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>915000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1511000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>443000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>554000</v>
       </c>
-      <c r="G18" s="3">
-        <v>402000</v>
-      </c>
       <c r="H18" s="3">
+        <v>677000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-533000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>622000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1060000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1174000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1494000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>812000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1639000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>601000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1078000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2489000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>634000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>80000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1459000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>762000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>332000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1453000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>428000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>710000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>839000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>405000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>8000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>103000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>600000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>670000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1666,169 +1698,173 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>615000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-917000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-841000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1422000</v>
       </c>
-      <c r="G20" s="3">
-        <v>68000</v>
-      </c>
       <c r="H20" s="3">
+        <v>199000</v>
+      </c>
+      <c r="I20" s="3">
         <v>1858000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>159000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-535000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-185000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1199000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2546000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3612000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1472000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6038000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9400000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1689000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-453000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1870000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1630000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2057000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2006000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-46000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-236000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-316000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>548000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-235000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1037000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-660000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1726000</v>
+      </c>
+      <c r="E21" s="3">
         <v>750000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-174000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-641000</v>
-      </c>
       <c r="G21" s="3">
-        <v>879000</v>
+        <v>-445000</v>
       </c>
       <c r="H21" s="3">
+        <v>1089000</v>
+      </c>
+      <c r="I21" s="3">
         <v>1361000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>923000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>686000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1077000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>390000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1581000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1884000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-709000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4784000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>8241000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-962000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-242000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-629000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2493000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-748000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>566000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>638000</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1841,11 +1877,14 @@
       <c r="AD21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF21" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1853,266 +1892,275 @@
         <v>55000</v>
       </c>
       <c r="E22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F22" s="3">
         <v>61000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>53000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>51000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>50000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>47000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>74000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>48000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>52000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>54000</v>
       </c>
       <c r="S22" s="3">
         <v>54000</v>
       </c>
       <c r="T22" s="3">
+        <v>54000</v>
+      </c>
+      <c r="U22" s="3">
         <v>113000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>56000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>60000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>65000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>60000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>46000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>45000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>42000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>73000</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>35000</v>
       </c>
       <c r="AD22" s="3">
         <v>35000</v>
       </c>
       <c r="AE22" s="3">
+        <v>35000</v>
+      </c>
+      <c r="AF22" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1475000</v>
+      </c>
+      <c r="E23" s="3">
         <v>539000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-459000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-921000</v>
       </c>
-      <c r="G23" s="3">
-        <v>419000</v>
-      </c>
       <c r="H23" s="3">
+        <v>825000</v>
+      </c>
+      <c r="I23" s="3">
         <v>1275000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>734000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>465000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>930000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>244000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1808000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2021000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-923000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5008000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6859000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1109000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-427000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-524000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-924000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2329000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-618000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>322000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>428000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>776000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>47000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>483000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-167000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-472000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-292000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-725000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-208000</v>
       </c>
-      <c r="G24" s="3">
-        <v>92000</v>
-      </c>
       <c r="H24" s="3">
+        <v>177000</v>
+      </c>
+      <c r="I24" s="3">
         <v>264000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>137000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>77000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>165000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-408000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-885000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-218000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1075000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1434000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-259000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-121000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-213000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-215000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>448000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-259000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>50000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>63000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>225000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-59000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-41000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>30000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-253000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-90000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2200,186 +2248,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="E26" s="3">
         <v>831000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>266000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-713000</v>
       </c>
-      <c r="G26" s="3">
-        <v>327000</v>
-      </c>
       <c r="H26" s="3">
+        <v>648000</v>
+      </c>
+      <c r="I26" s="3">
         <v>1011000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>597000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>388000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>765000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>223000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1136000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-705000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3933000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5425000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-850000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-306000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-311000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-709000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1881000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-359000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>272000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>365000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>551000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>106000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>524000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-197000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-219000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>69000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E27" s="3">
         <v>733000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>163000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-815000</v>
       </c>
-      <c r="G27" s="3">
-        <v>259000</v>
-      </c>
       <c r="H27" s="3">
+        <v>580000</v>
+      </c>
+      <c r="I27" s="3">
         <v>941000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>516000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>228000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>658000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>97000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1501000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1257000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-790000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4029000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5375000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-946000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-374000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-444000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-775000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1820000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-412000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>175000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>242000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>407000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>10000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>341000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-290000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-366000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2467,8 +2524,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2508,8 +2568,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2526,24 +2586,24 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>118000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-84000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-28000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>76000</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2556,8 +2616,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2645,8 +2708,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2734,186 +2800,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-615000</v>
+      </c>
+      <c r="E32" s="3">
         <v>917000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>841000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1422000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-68000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-199000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1858000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-159000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>535000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>185000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1199000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2546000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3612000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1472000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6038000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9400000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1689000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>453000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1870000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1630000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2057000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2006000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>46000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>236000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>18000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>316000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-548000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>235000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1037000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>660000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E33" s="3">
         <v>733000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>163000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-815000</v>
       </c>
-      <c r="G33" s="3">
-        <v>259000</v>
-      </c>
       <c r="H33" s="3">
+        <v>580000</v>
+      </c>
+      <c r="I33" s="3">
         <v>941000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>516000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>228000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>658000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>97000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1501000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1257000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-790000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4029000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5375000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-946000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-374000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-444000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-775000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1938000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-496000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>164000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>214000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>483000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>10000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>341000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-290000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-366000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3001,191 +3076,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E35" s="3">
         <v>733000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>163000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-815000</v>
       </c>
-      <c r="G35" s="3">
-        <v>259000</v>
-      </c>
       <c r="H35" s="3">
+        <v>580000</v>
+      </c>
+      <c r="I35" s="3">
         <v>941000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>516000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>228000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>658000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>97000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1501000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1257000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-790000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4029000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5375000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-946000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-374000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-444000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-775000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1938000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-496000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>164000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>214000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>483000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>10000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>341000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-290000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-366000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3217,8 +3301,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3250,97 +3335,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6096000</v>
+      </c>
+      <c r="E41" s="3">
         <v>7693000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5018000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4281000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4139000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5109000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5713000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5188000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5255000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5761000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6795000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6179000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8684000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8364000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10315000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4405000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4471000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4734000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5129000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4469000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4777000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6833000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6091000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4814000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6446000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6187000</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE41" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3428,97 +3517,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10288000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10448000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10656000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10809000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15917000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16424000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16804000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17278000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17440000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16936000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6887000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6789000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6509000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6663000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7050000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6579000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6591000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6896000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6972000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>7104000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>7133000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>7239000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>7253000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>7181000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>7241000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>7352000</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3606,28 +3701,31 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>928000</v>
+      </c>
+      <c r="E45" s="3">
         <v>879000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1055000</v>
       </c>
-      <c r="F45" s="3">
-        <v>1522000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1335000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1747000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1693000</v>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -3656,29 +3754,29 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>958000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1110000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1262000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1170000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1263000</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3695,8 +3793,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3784,97 +3885,103 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>99244000</v>
+      </c>
+      <c r="E47" s="3">
         <v>99448000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>97517000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>93878000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>94739000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>94890000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>99887000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>105306000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102300000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100895000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>106006000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>109087000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>105778000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>102693000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>96216000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>93340000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>94690000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>86853000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>82880000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>81281000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>79209000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>76822000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>79941000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>82706000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>79455000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>77837000</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3905,36 +4012,36 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>691000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>687000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>713000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>726000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>760000</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3944,8 +4051,8 @@
       <c r="Y48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
+      <c r="Z48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA48" s="3">
         <v>0</v>
@@ -3962,97 +4069,103 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5448000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5463000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5478000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5482000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5635000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4721000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4723000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4728000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4734000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4739000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4744000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4737000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4745000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4756000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4760000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4751000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4765000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4776000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4769000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4780000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4791000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4802000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4813000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4824000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>4840000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>4852000</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4140,8 +4253,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4229,97 +4345,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7280000</v>
+      </c>
+      <c r="E52" s="3">
         <v>7078000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7090000</v>
       </c>
-      <c r="F52" s="3">
-        <v>6931000</v>
-      </c>
       <c r="G52" s="3">
-        <v>8244000</v>
+        <v>8453000</v>
       </c>
       <c r="H52" s="3">
-        <v>7541000</v>
+        <v>9579000</v>
       </c>
       <c r="I52" s="3">
-        <v>6592000</v>
+        <v>9288000</v>
       </c>
       <c r="J52" s="3">
+        <v>8285000</v>
+      </c>
+      <c r="K52" s="3">
         <v>6995000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6275000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5911000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6839000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6466000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6040000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6064000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7665000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7894000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5787000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6080000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>6018000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>6745000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>6736000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7635000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7313000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8394000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>6722000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>6984000</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4407,97 +4529,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>260252000</v>
+      </c>
+      <c r="E54" s="3">
         <v>269006000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>261500000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>252702000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>245600000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>253482000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>277658000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>292262000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>284579000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>285982000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>276832000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>275397000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>262496000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>254110000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>240781000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>249818000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>244646000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>238597000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>232819000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>220797000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>234451000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>231012000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>232294000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>235615000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>230825000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>226564000</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE54" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4529,8 +4657,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4562,8 +4691,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4651,186 +4781,195 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8171000</v>
+        <v>9001000</v>
       </c>
       <c r="E58" s="3">
-        <v>7915000</v>
+        <v>8671000</v>
       </c>
       <c r="F58" s="3">
-        <v>8039000</v>
+        <v>9415000</v>
       </c>
       <c r="G58" s="3">
+        <v>9539000</v>
+      </c>
+      <c r="H58" s="3">
         <v>7270000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6820000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5992000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6636000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7059000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8017000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>9456000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5947000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5038000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4890000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4632000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4608000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4208000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1698000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1640000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2063000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2400000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2350000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2404000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2387000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3784000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3747000</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4199000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5452000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4911000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6189000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5316000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5786000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7007000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6264000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5706000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5962000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6802000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7845000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7260000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7447000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8366000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6060000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6068000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6146000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6321000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5032000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4687000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4714000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4411000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4448000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4373000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4491000</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD59" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4918,120 +5057,126 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4500000</v>
+        <v>11280000</v>
       </c>
       <c r="E61" s="3">
-        <v>4511000</v>
+        <v>12283000</v>
       </c>
       <c r="F61" s="3">
-        <v>4014000</v>
+        <v>12082000</v>
       </c>
       <c r="G61" s="3">
+        <v>11278000</v>
+      </c>
+      <c r="H61" s="3">
         <v>4026000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5698000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5318000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11848000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4772000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4867000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5105000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7321000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5916000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5915000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6336000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6403000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7086000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7144000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7299000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7455000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7306000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7422000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7403000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11530000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7142000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>6786000</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E62" s="3">
         <v>129000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>158000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>108000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -5040,26 +5185,26 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>270000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>322000</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>679000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>724000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -5072,8 +5217,8 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -5096,8 +5241,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5185,8 +5333,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5274,8 +5425,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5363,97 +5517,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>258610000</v>
+      </c>
+      <c r="E66" s="3">
         <v>265453000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>257746000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>251301000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>242246000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>247893000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>269704000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>280743000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>272899000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>274250000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>266139000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>259821000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>245196000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>236516000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>220695000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>236362000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>229710000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>223754000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>219676000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>206931000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>222040000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>217674000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>218775000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>222246000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>218667000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>214442000</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD66" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE66" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5485,8 +5645,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5574,8 +5735,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5663,8 +5827,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5699,13 +5866,13 @@
         <v>1562000</v>
       </c>
       <c r="N70" s="3">
-        <v>1269000</v>
+        <v>1562000</v>
       </c>
       <c r="O70" s="3">
         <v>1269000</v>
       </c>
       <c r="P70" s="3">
-        <v>775000</v>
+        <v>1269000</v>
       </c>
       <c r="Q70" s="3">
         <v>775000</v>
@@ -5714,7 +5881,7 @@
         <v>775000</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>775000</v>
       </c>
       <c r="T70" s="3">
         <v>0</v>
@@ -5752,8 +5919,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5841,97 +6011,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11163000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10325000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9806000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9825000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10839000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10718000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9312000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8880000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8857000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8739000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8758000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10699000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12032000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12995000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>17112000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11744000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12835000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>13293000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>13004000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>13989000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>12031000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>12613000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>12455000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>12225000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>11548000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>11558000</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD72" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE72" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6019,8 +6195,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6108,8 +6287,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6197,97 +6379,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1991000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2192000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-161000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1792000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4027000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6392000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9957000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10118000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10170000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9131000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14307000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16031000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16819000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19311000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12681000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14936000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14843000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13143000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13866000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12411000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>13338000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>13519000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13369000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12158000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12122000</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6375,191 +6563,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E81" s="3">
         <v>733000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>163000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-815000</v>
       </c>
-      <c r="G81" s="3">
-        <v>259000</v>
-      </c>
       <c r="H81" s="3">
+        <v>580000</v>
+      </c>
+      <c r="I81" s="3">
         <v>941000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>516000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>228000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>658000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>97000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1501000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1257000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-790000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4029000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5375000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-946000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-374000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-444000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-775000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1938000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-496000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>164000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>214000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>483000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>10000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>341000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-290000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-366000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-8000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6591,97 +6788,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E83" s="3">
         <v>156000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>224000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>227000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>216000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>191000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>180000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>161000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>88000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>95000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>153000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>162000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>176000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1330000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>93000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>131000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>433000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>239000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>104000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>-195000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>184000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>164000</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>8</v>
+      <c r="AC83" s="3">
+        <v>0</v>
       </c>
       <c r="AD83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AE83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF83" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6769,8 +6970,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6858,8 +7062,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6947,8 +7154,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7036,8 +7246,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7125,97 +7338,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E89" s="3">
         <v>361000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-587000</v>
       </c>
-      <c r="F89" s="3">
-        <v>-106000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-205000</v>
+        <v>-540000</v>
       </c>
       <c r="H89" s="3">
+        <v>229000</v>
+      </c>
+      <c r="I89" s="3">
         <v>68000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-608000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-402000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>241000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-581000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-66000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>553000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-570000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>76000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>133000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-425000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-109000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>94000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>281000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-67000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-247000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-23000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>378000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>666000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>72000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-54000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-22000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7247,97 +7466,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-65000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-83000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-41000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-29000</v>
       </c>
       <c r="L91" s="3">
         <v>-29000</v>
       </c>
       <c r="M91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-23000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-14000</v>
       </c>
       <c r="Q91" s="3">
         <v>-14000</v>
       </c>
       <c r="R91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-21000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-33000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-39000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-39000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-38000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-35000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-43000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-19000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-30000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7425,8 +7648,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7514,97 +7740,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2449000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1087000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1430000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3215000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2524000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1577000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-171000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1914000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2484000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4540000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3751000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3855000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5530000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2585000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>4147000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1085000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4969000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2442000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-70000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-993000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2863000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1348000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>459000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3121000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1501000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5067000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2899000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1944000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-1326000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7636,80 +7868,81 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-78000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-72000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-74000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-75000</v>
       </c>
       <c r="H96" s="3">
         <v>-75000</v>
       </c>
       <c r="I96" s="3">
+        <v>-75000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-70000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-72000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-74000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-76000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-74000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-75000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-76000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-69000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-70000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-74000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-141000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-68000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-69000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-73000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
@@ -7725,8 +7958,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7814,8 +8050,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7903,8 +8142,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7992,271 +8234,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>470000</v>
+      </c>
+      <c r="E100" s="3">
         <v>3394000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2749000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3588000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1513000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1108000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1437000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2330000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1751000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3994000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4436000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1498000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5285000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>557000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2334000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>992000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4581000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3132000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>838000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-181000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>700000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-264000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1400000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2771000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1376000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>4923000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>2630000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>954000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>754000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E101" s="3">
         <v>6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>34000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-38000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-41000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>22000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-13000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>16000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>1000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-3000</v>
       </c>
       <c r="W101" s="3">
         <v>-3000</v>
       </c>
       <c r="X101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>5000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>6000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>11000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>8000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-17000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1587000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2674000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>742000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>301000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-970000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-604000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>525000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-506000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1126000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>669000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2401000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>320000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1992000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5886000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-263000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>265000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>660000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-308000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2056000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>742000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1277000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1632000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>259000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>533000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-189000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1061000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-593000</v>
       </c>
     </row>
